--- a/test/files/excel-new9.xlsx
+++ b/test/files/excel-new9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pnganga\Desktop\EXAMINATIONS\JANUARY 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681EA647-9DA3-40F9-A14C-F5C52FAAE022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92DE994A-EC09-844F-97E4-366B39B4A079}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ATHIRIVER" sheetId="3" r:id="rId1"/>
@@ -22,12 +22,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'NAIROBI EVENING'!$A$1:$J$101</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">NAIROBIDAY!$A$1:$R$86</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="1037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="1049">
   <si>
     <t>ROOM</t>
   </si>
@@ -466,9 +468,6 @@
     <t>MAT 610X</t>
   </si>
   <si>
-    <t>COM 686X</t>
-  </si>
-  <si>
     <t>COM 349X</t>
   </si>
   <si>
@@ -1327,9 +1326,6 @@
     <t>SATURDAY 16/05/20</t>
   </si>
   <si>
-    <t>1. This is a draft timetable, therefore  do not make any decisions  using this draft timetable</t>
-  </si>
-  <si>
     <t>AD 3</t>
   </si>
   <si>
@@ -3145,7 +3141,49 @@
     <t>MUS111B</t>
   </si>
   <si>
-    <t>2. Students and Lecturers are requested to report any ommission, of courses, including issues relating to capacity by Friday, 24th Friday 2020</t>
+    <t>BIL111U</t>
+  </si>
+  <si>
+    <t>PSY414X</t>
+  </si>
+  <si>
+    <t>IRS300A</t>
+  </si>
+  <si>
+    <t>IRS 300T</t>
+  </si>
+  <si>
+    <t>BUS415A</t>
+  </si>
+  <si>
+    <t>BUS415B</t>
+  </si>
+  <si>
+    <t>COM686X</t>
+  </si>
+  <si>
+    <t>BUS323A</t>
+  </si>
+  <si>
+    <t>COM226A</t>
+  </si>
+  <si>
+    <t>ACC311A</t>
+  </si>
+  <si>
+    <t>COM226T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Students and Lecturers are requested to check the changes that have been made (exam dates and exam rooms). </t>
+  </si>
+  <si>
+    <t>1. This is the final exam timetable for JANUARY Semester 2020</t>
+  </si>
+  <si>
+    <t>LIT111T</t>
+  </si>
+  <si>
+    <t>MUS111T</t>
   </si>
 </sst>
 </file>
@@ -3244,7 +3282,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3284,6 +3322,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3497,7 +3541,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3567,8 +3611,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3603,6 +3645,9 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3947,64 +3992,64 @@
   </sheetPr>
   <dimension ref="A2:R133"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="20" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="11.43359375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.4453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.17578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.484375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.75390625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.04296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.484375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.48046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.484375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.52734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.46484375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="20.04296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.46484375" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.75390625" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.484375" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.14453125" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -4012,7 +4057,7 @@
         <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>105</v>
@@ -4033,7 +4078,7 @@
         <v>106</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>105</v>
@@ -4054,101 +4099,101 @@
         <v>106</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="C4" s="63" t="s">
-        <v>335</v>
-      </c>
-      <c r="D4" s="64" t="s">
-        <v>672</v>
+        <v>514</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>334</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>670</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="63" t="s">
-        <v>657</v>
+      <c r="F4" s="61" t="s">
+        <v>655</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>777</v>
-      </c>
-      <c r="H4" s="63" t="s">
-        <v>676</v>
-      </c>
-      <c r="I4" s="67" t="s">
-        <v>692</v>
+        <v>775</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>674</v>
+      </c>
+      <c r="I4" s="65" t="s">
+        <v>690</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="K4" s="70" t="s">
-        <v>680</v>
+        <v>298</v>
+      </c>
+      <c r="K4" s="68" t="s">
+        <v>678</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="N4" s="67" t="s">
-        <v>697</v>
+        <v>575</v>
+      </c>
+      <c r="N4" s="65" t="s">
+        <v>695</v>
       </c>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="C5" s="63" t="s">
-        <v>336</v>
-      </c>
-      <c r="D5" s="66" t="s">
-        <v>673</v>
+        <v>344</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>335</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>671</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="63" t="s">
-        <v>658</v>
+      <c r="F5" s="61" t="s">
+        <v>656</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H5" s="63" t="s">
+        <v>274</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>538</v>
+      </c>
+      <c r="I5" s="65" t="s">
+        <v>691</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="I5" s="67" t="s">
-        <v>693</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="K5" s="67" t="s">
-        <v>681</v>
+      <c r="K5" s="65" t="s">
+        <v>679</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -4156,45 +4201,45 @@
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C6" s="63" t="s">
-        <v>650</v>
+        <v>290</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>648</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="63" t="s">
-        <v>659</v>
+      <c r="F6" s="61" t="s">
+        <v>657</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="H6" s="63" t="s">
-        <v>677</v>
-      </c>
-      <c r="I6" s="70" t="s">
-        <v>694</v>
+        <v>340</v>
+      </c>
+      <c r="H6" s="61" t="s">
+        <v>675</v>
+      </c>
+      <c r="I6" s="68" t="s">
+        <v>692</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="K6" s="67" t="s">
-        <v>682</v>
+        <v>541</v>
+      </c>
+      <c r="K6" s="65" t="s">
+        <v>680</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -4202,45 +4247,45 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C7" s="63" t="s">
-        <v>651</v>
+        <v>264</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>649</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="64" t="s">
-        <v>660</v>
+      <c r="F7" s="62" t="s">
+        <v>658</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="H7" s="63" t="s">
-        <v>527</v>
-      </c>
-      <c r="I7" s="70" t="s">
-        <v>695</v>
+        <v>539</v>
+      </c>
+      <c r="H7" s="61" t="s">
+        <v>525</v>
+      </c>
+      <c r="I7" s="68" t="s">
+        <v>693</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="K7" s="70" t="s">
-        <v>683</v>
+        <v>317</v>
+      </c>
+      <c r="K7" s="68" t="s">
+        <v>681</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -4248,11 +4293,13 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>1041</v>
+      </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
@@ -4260,12 +4307,12 @@
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="63" t="s">
-        <v>592</v>
+      <c r="H8" s="61" t="s">
+        <v>590</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>2</v>
@@ -4277,7 +4324,7 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="8"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>45</v>
       </c>
@@ -4292,7 +4339,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-      <c r="K9" s="71"/>
+      <c r="K9" s="69"/>
       <c r="L9" s="6" t="s">
         <v>2</v>
       </c>
@@ -4303,7 +4350,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>46</v>
       </c>
@@ -4318,7 +4365,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="68"/>
+      <c r="K10" s="66"/>
       <c r="L10" s="6" t="s">
         <v>2</v>
       </c>
@@ -4329,7 +4376,7 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>47</v>
       </c>
@@ -4344,7 +4391,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="68"/>
+      <c r="K11" s="66"/>
       <c r="L11" s="6" t="s">
         <v>2</v>
       </c>
@@ -4355,7 +4402,7 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>48</v>
       </c>
@@ -4368,7 +4415,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="68"/>
+      <c r="K12" s="66"/>
       <c r="L12" s="6" t="s">
         <v>2</v>
       </c>
@@ -4379,7 +4426,7 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>49</v>
       </c>
@@ -4394,7 +4441,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="68"/>
+      <c r="K13" s="66"/>
       <c r="L13" s="6" t="s">
         <v>2</v>
       </c>
@@ -4405,7 +4452,7 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>50</v>
       </c>
@@ -4420,7 +4467,7 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="68"/>
+      <c r="K14" s="66"/>
       <c r="L14" s="6" t="s">
         <v>2</v>
       </c>
@@ -4430,7 +4477,7 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>51</v>
       </c>
@@ -4445,7 +4492,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="68"/>
+      <c r="K15" s="66"/>
       <c r="L15" s="6" t="s">
         <v>2</v>
       </c>
@@ -4456,7 +4503,7 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>52</v>
       </c>
@@ -4470,7 +4517,7 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="68"/>
+      <c r="K16" s="66"/>
       <c r="L16" s="6" t="s">
         <v>2</v>
       </c>
@@ -4480,7 +4527,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>53</v>
       </c>
@@ -4495,7 +4542,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
-      <c r="K17" s="68"/>
+      <c r="K17" s="66"/>
       <c r="L17" s="6" t="s">
         <v>2</v>
       </c>
@@ -4506,13 +4553,13 @@
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>2</v>
@@ -4522,7 +4569,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="68"/>
+      <c r="K18" s="66"/>
       <c r="L18" s="6" t="s">
         <v>2</v>
       </c>
@@ -4532,14 +4579,14 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>2</v>
@@ -4549,7 +4596,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="68"/>
+      <c r="K19" s="66"/>
       <c r="L19" s="6" t="s">
         <v>2</v>
       </c>
@@ -4560,14 +4607,14 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>2</v>
@@ -4577,7 +4624,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="68"/>
+      <c r="K20" s="66"/>
       <c r="L20" s="6" t="s">
         <v>2</v>
       </c>
@@ -4588,14 +4635,14 @@
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>2</v>
@@ -4605,7 +4652,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
-      <c r="K21" s="68"/>
+      <c r="K21" s="66"/>
       <c r="L21" s="6" t="s">
         <v>2</v>
       </c>
@@ -4616,7 +4663,7 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>58</v>
       </c>
@@ -4629,7 +4676,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
-      <c r="K22" s="68"/>
+      <c r="K22" s="66"/>
       <c r="L22" s="6" t="s">
         <v>2</v>
       </c>
@@ -4640,7 +4687,7 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>59</v>
       </c>
@@ -4655,7 +4702,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="68"/>
+      <c r="K23" s="66"/>
       <c r="L23" s="6" t="s">
         <v>2</v>
       </c>
@@ -4665,7 +4712,7 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>60</v>
       </c>
@@ -4680,7 +4727,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="68"/>
+      <c r="K24" s="66"/>
       <c r="L24" s="6" t="s">
         <v>2</v>
       </c>
@@ -4691,7 +4738,7 @@
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>61</v>
       </c>
@@ -4705,12 +4752,12 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-      <c r="K25" s="68"/>
+      <c r="K25" s="66"/>
       <c r="L25" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
@@ -4718,7 +4765,7 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>62</v>
       </c>
@@ -4733,7 +4780,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="68"/>
+      <c r="K26" s="66"/>
       <c r="L26" s="6" t="s">
         <v>2</v>
       </c>
@@ -4744,7 +4791,7 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>63</v>
       </c>
@@ -4758,7 +4805,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="68"/>
+      <c r="K27" s="66"/>
       <c r="L27" s="6" t="s">
         <v>2</v>
       </c>
@@ -4769,7 +4816,7 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>64</v>
       </c>
@@ -4783,7 +4830,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
-      <c r="K28" s="68"/>
+      <c r="K28" s="66"/>
       <c r="L28" s="6" t="s">
         <v>2</v>
       </c>
@@ -4794,7 +4841,7 @@
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>65</v>
       </c>
@@ -4809,7 +4856,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
-      <c r="K29" s="68"/>
+      <c r="K29" s="66"/>
       <c r="L29" s="6" t="s">
         <v>2</v>
       </c>
@@ -4820,7 +4867,7 @@
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>66</v>
       </c>
@@ -4834,7 +4881,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
-      <c r="K30" s="68"/>
+      <c r="K30" s="66"/>
       <c r="L30" s="6" t="s">
         <v>2</v>
       </c>
@@ -4844,7 +4891,7 @@
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>67</v>
       </c>
@@ -4859,7 +4906,7 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="68"/>
+      <c r="K31" s="66"/>
       <c r="L31" s="6" t="s">
         <v>2</v>
       </c>
@@ -4870,273 +4917,273 @@
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="C32" s="63" t="s">
+        <v>521</v>
+      </c>
+      <c r="C32" s="61" t="s">
+        <v>650</v>
+      </c>
+      <c r="D32" s="61" t="s">
         <v>652</v>
       </c>
-      <c r="D32" s="63" t="s">
-        <v>654</v>
-      </c>
       <c r="E32" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F32" s="64" t="s">
-        <v>661</v>
-      </c>
-      <c r="G32" s="64" t="s">
-        <v>708</v>
-      </c>
-      <c r="H32" s="63" t="s">
-        <v>528</v>
-      </c>
-      <c r="I32" s="72" t="s">
-        <v>696</v>
+      <c r="F32" s="62" t="s">
+        <v>659</v>
+      </c>
+      <c r="G32" s="62" t="s">
+        <v>706</v>
+      </c>
+      <c r="H32" s="61" t="s">
+        <v>526</v>
+      </c>
+      <c r="I32" s="70" t="s">
+        <v>694</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="K32" s="67" t="s">
-        <v>684</v>
+        <v>296</v>
+      </c>
+      <c r="K32" s="65" t="s">
+        <v>682</v>
       </c>
       <c r="L32" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M32" s="72" t="s">
-        <v>829</v>
+      <c r="M32" s="70" t="s">
+        <v>827</v>
       </c>
       <c r="N32" s="6"/>
-      <c r="O32" s="67" t="s">
-        <v>704</v>
-      </c>
-      <c r="P32" s="66" t="s">
-        <v>822</v>
-      </c>
-      <c r="Q32" s="66" t="s">
-        <v>711</v>
+      <c r="O32" s="65" t="s">
+        <v>702</v>
+      </c>
+      <c r="P32" s="64" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q32" s="64" t="s">
+        <v>709</v>
       </c>
       <c r="R32" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="C33" s="63" t="s">
+        <v>523</v>
+      </c>
+      <c r="C33" s="61" t="s">
+        <v>651</v>
+      </c>
+      <c r="D33" s="61" t="s">
         <v>653</v>
       </c>
-      <c r="D33" s="63" t="s">
-        <v>655</v>
-      </c>
       <c r="E33" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="64" t="s">
-        <v>662</v>
-      </c>
-      <c r="G33" s="64" t="s">
-        <v>823</v>
-      </c>
-      <c r="H33" s="63" t="s">
-        <v>679</v>
-      </c>
-      <c r="I33" s="63" t="s">
-        <v>518</v>
+      <c r="F33" s="62" t="s">
+        <v>660</v>
+      </c>
+      <c r="G33" s="62" t="s">
+        <v>821</v>
+      </c>
+      <c r="H33" s="61" t="s">
+        <v>677</v>
+      </c>
+      <c r="I33" s="61" t="s">
+        <v>516</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="K33" s="67" t="s">
-        <v>685</v>
+        <v>348</v>
+      </c>
+      <c r="K33" s="65" t="s">
+        <v>683</v>
       </c>
       <c r="L33" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="N33" s="72" t="s">
-        <v>700</v>
-      </c>
-      <c r="O33" s="67" t="s">
-        <v>705</v>
-      </c>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="66" t="s">
-        <v>713</v>
+        <v>342</v>
+      </c>
+      <c r="N33" s="70" t="s">
+        <v>698</v>
+      </c>
+      <c r="O33" s="65" t="s">
+        <v>703</v>
+      </c>
+      <c r="P33" s="85"/>
+      <c r="Q33" s="64" t="s">
+        <v>711</v>
       </c>
       <c r="R33" s="6" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="C34" s="63" t="s">
+        <v>524</v>
+      </c>
+      <c r="C34" s="61" t="s">
+        <v>777</v>
+      </c>
+      <c r="D34" s="61" t="s">
+        <v>654</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="62" t="s">
+        <v>661</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="61" t="s">
+        <v>337</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="K34" s="80" t="s">
+        <v>778</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="N34" s="70" t="s">
+        <v>699</v>
+      </c>
+      <c r="O34" s="64" t="s">
+        <v>704</v>
+      </c>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="64" t="s">
+        <v>710</v>
+      </c>
+      <c r="R34" s="64" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="B35" s="62" t="s">
+        <v>799</v>
+      </c>
+      <c r="C35" s="79" t="s">
         <v>779</v>
       </c>
-      <c r="D34" s="63" t="s">
-        <v>656</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F34" s="64" t="s">
-        <v>663</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="63" t="s">
-        <v>338</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="K34" s="82" t="s">
+      <c r="D35" s="62" t="s">
+        <v>672</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="63" t="s">
+        <v>664</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="H35" s="67" t="s">
+        <v>676</v>
+      </c>
+      <c r="I35" s="67" t="s">
         <v>780</v>
       </c>
-      <c r="L34" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M34" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="N34" s="72" t="s">
-        <v>701</v>
-      </c>
-      <c r="O34" s="66" t="s">
-        <v>706</v>
-      </c>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="66" t="s">
-        <v>712</v>
-      </c>
-      <c r="R34" s="66" t="s">
+      <c r="J35" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="K35" s="70" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="B35" s="64" t="s">
-        <v>801</v>
-      </c>
-      <c r="C35" s="81" t="s">
-        <v>781</v>
-      </c>
-      <c r="D35" s="64" t="s">
-        <v>674</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F35" s="65" t="s">
-        <v>666</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H35" s="69" t="s">
-        <v>678</v>
-      </c>
-      <c r="I35" s="69" t="s">
-        <v>782</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="K35" s="72" t="s">
-        <v>830</v>
-      </c>
       <c r="L35" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="N35" s="67" t="s">
-        <v>886</v>
+        <v>581</v>
+      </c>
+      <c r="N35" s="65" t="s">
+        <v>884</v>
       </c>
       <c r="O35" s="18"/>
       <c r="P35" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="Q35" s="66" t="s">
-        <v>709</v>
-      </c>
-      <c r="R35" s="66" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+      <c r="Q35" s="64" t="s">
+        <v>707</v>
+      </c>
+      <c r="R35" s="64" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
-      <c r="D36" s="64" t="s">
-        <v>675</v>
+      <c r="D36" s="62" t="s">
+        <v>673</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F36" s="64" t="s">
-        <v>664</v>
+      <c r="F36" s="62" t="s">
+        <v>662</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="H36" s="63" t="s">
-        <v>787</v>
-      </c>
-      <c r="I36" s="69" t="s">
-        <v>783</v>
+        <v>352</v>
+      </c>
+      <c r="H36" s="61" t="s">
+        <v>785</v>
+      </c>
+      <c r="I36" s="67" t="s">
+        <v>781</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="K36" s="66" t="s">
-        <v>686</v>
+        <v>268</v>
+      </c>
+      <c r="K36" s="64" t="s">
+        <v>684</v>
       </c>
       <c r="L36" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="N36" s="67" t="s">
-        <v>698</v>
-      </c>
-      <c r="O36" s="66" t="s">
-        <v>707</v>
+        <v>355</v>
+      </c>
+      <c r="N36" s="65" t="s">
+        <v>696</v>
+      </c>
+      <c r="O36" s="64" t="s">
+        <v>705</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q36" s="66" t="s">
-        <v>714</v>
-      </c>
-      <c r="R36" s="66" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="Q36" s="64" t="s">
+        <v>712</v>
+      </c>
+      <c r="R36" s="64" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>77</v>
       </c>
@@ -5146,40 +5193,40 @@
       <c r="E37" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F37" s="64" t="s">
-        <v>665</v>
+      <c r="F37" s="62" t="s">
+        <v>663</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H37" s="6"/>
-      <c r="I37" s="69" t="s">
-        <v>784</v>
+      <c r="I37" s="67" t="s">
+        <v>782</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="K37" s="66" t="s">
-        <v>687</v>
+        <v>346</v>
+      </c>
+      <c r="K37" s="64" t="s">
+        <v>685</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="N37" s="67" t="s">
-        <v>699</v>
+      <c r="N37" s="65" t="s">
+        <v>697</v>
       </c>
       <c r="O37" s="6"/>
       <c r="P37" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q37" s="66" t="s">
-        <v>710</v>
-      </c>
-      <c r="R37" s="66" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+      <c r="Q37" s="64" t="s">
+        <v>708</v>
+      </c>
+      <c r="R37" s="64" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>72</v>
       </c>
@@ -5188,41 +5235,41 @@
       <c r="E38" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F38" s="64" t="s">
-        <v>667</v>
+      <c r="F38" s="62" t="s">
+        <v>665</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H38" s="6"/>
-      <c r="I38" s="69" t="s">
-        <v>819</v>
+      <c r="I38" s="67" t="s">
+        <v>817</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="K38" s="66" t="s">
-        <v>688</v>
+        <v>294</v>
+      </c>
+      <c r="K38" s="64" t="s">
+        <v>686</v>
       </c>
       <c r="L38" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M38" s="6"/>
-      <c r="N38" s="67" t="s">
-        <v>702</v>
+      <c r="N38" s="65" t="s">
+        <v>700</v>
       </c>
       <c r="O38" s="6"/>
       <c r="P38" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="Q38" s="67" t="s">
-        <v>900</v>
-      </c>
-      <c r="R38" s="66" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+      <c r="Q38" s="65" t="s">
+        <v>898</v>
+      </c>
+      <c r="R38" s="64" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>73</v>
       </c>
@@ -5232,41 +5279,43 @@
       <c r="E39" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F39" s="64" t="s">
-        <v>800</v>
+      <c r="F39" s="62" t="s">
+        <v>798</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
+      <c r="I39" s="67" t="s">
+        <v>1038</v>
+      </c>
       <c r="J39" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="K39" s="67" t="s">
-        <v>785</v>
+        <v>327</v>
+      </c>
+      <c r="K39" s="65" t="s">
+        <v>783</v>
       </c>
       <c r="L39" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="N39" s="67" t="s">
-        <v>703</v>
+        <v>583</v>
+      </c>
+      <c r="N39" s="65" t="s">
+        <v>701</v>
       </c>
       <c r="O39" s="6"/>
       <c r="P39" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q39" s="66" t="s">
-        <v>792</v>
-      </c>
-      <c r="R39" s="66" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="Q39" s="64" t="s">
+        <v>790</v>
+      </c>
+      <c r="R39" s="64" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>74</v>
       </c>
@@ -5278,31 +5327,33 @@
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
+      <c r="I40" s="67" t="s">
+        <v>1039</v>
+      </c>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M40" s="6"/>
-      <c r="N40" s="66" t="s">
-        <v>786</v>
+      <c r="N40" s="64" t="s">
+        <v>784</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="Q40" s="66" t="s">
-        <v>793</v>
-      </c>
-      <c r="R40" s="66" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+      <c r="Q40" s="64" t="s">
+        <v>791</v>
+      </c>
+      <c r="R40" s="64" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>75</v>
       </c>
@@ -5314,35 +5365,35 @@
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="K41" s="6"/>
       <c r="L41" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="N41" s="66" t="s">
-        <v>790</v>
+        <v>589</v>
+      </c>
+      <c r="N41" s="64" t="s">
+        <v>788</v>
       </c>
       <c r="O41" s="6"/>
       <c r="P41" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="Q41" s="66" t="s">
-        <v>794</v>
-      </c>
-      <c r="R41" s="66" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+      <c r="Q41" s="64" t="s">
+        <v>792</v>
+      </c>
+      <c r="R41" s="64" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>76</v>
       </c>
@@ -5354,7 +5405,7 @@
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
@@ -5364,21 +5415,20 @@
         <v>2</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="N42" s="66" t="s">
-        <v>789</v>
-      </c>
-      <c r="O42" s="6"/>
+        <v>303</v>
+      </c>
+      <c r="N42" s="64" t="s">
+        <v>787</v>
+      </c>
       <c r="P42" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q42" s="6"/>
-      <c r="R42" s="66" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R42" s="64" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>78</v>
       </c>
@@ -5390,7 +5440,7 @@
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
@@ -5403,25 +5453,25 @@
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
       <c r="P43" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q43" s="6"/>
-      <c r="R43" s="66" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R43" s="64" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="64" t="s">
-        <v>799</v>
-      </c>
-      <c r="C44" s="64" t="s">
-        <v>799</v>
-      </c>
-      <c r="D44" s="64" t="s">
-        <v>799</v>
+      <c r="B44" s="62" t="s">
+        <v>797</v>
+      </c>
+      <c r="C44" s="62" t="s">
+        <v>797</v>
+      </c>
+      <c r="D44" s="62" t="s">
+        <v>797</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>2</v>
@@ -5442,7 +5492,7 @@
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>80</v>
       </c>
@@ -5451,11 +5501,11 @@
       <c r="E45" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F45" s="64" t="s">
-        <v>668</v>
+      <c r="F45" s="62" t="s">
+        <v>666</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
@@ -5471,180 +5521,180 @@
       <c r="Q45" s="6"/>
       <c r="R45" s="2"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F46" s="64" t="s">
-        <v>669</v>
+      <c r="F46" s="62" t="s">
+        <v>667</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="K46" s="6"/>
       <c r="L46" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="N46" s="72" t="s">
-        <v>814</v>
+        <v>307</v>
+      </c>
+      <c r="N46" s="70" t="s">
+        <v>812</v>
       </c>
       <c r="O46" s="6"/>
       <c r="P46" s="6" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="Q46" s="6"/>
       <c r="R46" s="6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F47" s="64" t="s">
-        <v>670</v>
+      <c r="F47" s="62" t="s">
+        <v>668</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K47" s="6"/>
       <c r="L47" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="N47" s="72" t="s">
-        <v>815</v>
+        <v>271</v>
+      </c>
+      <c r="N47" s="70" t="s">
+        <v>813</v>
       </c>
       <c r="O47" s="6"/>
       <c r="P47" s="6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="Q47" s="6"/>
-      <c r="R47" s="72" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R47" s="70" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F48" s="64" t="s">
-        <v>671</v>
+      <c r="F48" s="62" t="s">
+        <v>669</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
       <c r="J48" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
       <c r="P48" s="6" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="Q48" s="6"/>
-      <c r="R48" s="72" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R48" s="70" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C49" s="6"/>
-      <c r="D49" s="64" t="s">
-        <v>816</v>
+      <c r="D49" s="62" t="s">
+        <v>814</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
       <c r="P49" s="6" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
-      <c r="D50" s="64" t="s">
-        <v>817</v>
+      <c r="D50" s="62" t="s">
+        <v>815</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>2</v>
@@ -5665,7 +5715,7 @@
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>88</v>
       </c>
@@ -5689,7 +5739,7 @@
       <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>89</v>
       </c>
@@ -5715,7 +5765,7 @@
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>90</v>
       </c>
@@ -5740,9 +5790,9 @@
       <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -5765,7 +5815,7 @@
       <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
         <v>91</v>
       </c>
@@ -5791,7 +5841,7 @@
       <c r="Q55" s="6"/>
       <c r="R55" s="6"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
         <v>92</v>
       </c>
@@ -5804,14 +5854,14 @@
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
-      <c r="I56" s="66" t="s">
-        <v>798</v>
-      </c>
-      <c r="J56" s="66" t="s">
-        <v>798</v>
-      </c>
-      <c r="K56" s="66" t="s">
-        <v>798</v>
+      <c r="I56" s="64" t="s">
+        <v>796</v>
+      </c>
+      <c r="J56" s="64" t="s">
+        <v>796</v>
+      </c>
+      <c r="K56" s="64" t="s">
+        <v>796</v>
       </c>
       <c r="L56" s="6" t="s">
         <v>2</v>
@@ -5823,7 +5873,7 @@
       <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
         <v>93</v>
       </c>
@@ -5849,7 +5899,7 @@
       <c r="Q57" s="6"/>
       <c r="R57" s="6"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
         <v>94</v>
       </c>
@@ -5875,7 +5925,7 @@
       <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
         <v>95</v>
       </c>
@@ -5898,17 +5948,17 @@
       <c r="N59" s="6"/>
       <c r="O59" s="6"/>
       <c r="P59" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q59" s="6"/>
       <c r="R59" s="6"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -5920,7 +5970,7 @@
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="K60" s="6"/>
       <c r="L60" s="6" t="s">
@@ -5933,28 +5983,28 @@
       <c r="Q60" s="6"/>
       <c r="R60" s="6"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
         <v>117</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
       <c r="J61" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K61" s="6"/>
       <c r="L61" s="6" t="s">
@@ -5964,17 +6014,17 @@
       <c r="N61" s="6"/>
       <c r="O61" s="6"/>
       <c r="P61" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q61" s="6"/>
       <c r="R61" s="6"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
         <v>118</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -5986,7 +6036,7 @@
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
       <c r="J62" s="6" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="K62" s="6"/>
       <c r="L62" s="6" t="s">
@@ -5999,7 +6049,7 @@
       <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
         <v>97</v>
       </c>
@@ -6025,55 +6075,55 @@
       <c r="Q63" s="6"/>
       <c r="R63" s="6"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
       <c r="B64" s="6"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="61"/>
-      <c r="G64" s="61"/>
-      <c r="H64" s="61"/>
-      <c r="I64" s="61"/>
-      <c r="J64" s="61"/>
-      <c r="K64" s="61"/>
-      <c r="L64" s="61"/>
-      <c r="M64" s="61"/>
-      <c r="O64" s="61"/>
-      <c r="P64" s="61"/>
-      <c r="Q64" s="62"/>
-      <c r="R64" s="61"/>
-    </row>
-    <row r="65" spans="1:18" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="C64" s="59"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="59"/>
+      <c r="I64" s="59"/>
+      <c r="J64" s="59"/>
+      <c r="K64" s="59"/>
+      <c r="L64" s="59"/>
+      <c r="M64" s="59"/>
+      <c r="O64" s="59"/>
+      <c r="P64" s="59"/>
+      <c r="Q64" s="60"/>
+      <c r="R64" s="59"/>
+    </row>
+    <row r="65" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A65" s="1"/>
       <c r="B65" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="I65" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Q65" s="12"/>
       <c r="R65" s="2"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
         <v>0</v>
       </c>
@@ -6081,7 +6131,7 @@
         <v>106</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>105</v>
@@ -6102,7 +6152,7 @@
         <v>106</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>105</v>
@@ -6123,116 +6173,119 @@
         <v>106</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="R66" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="C67" s="66" t="s">
-        <v>689</v>
+        <v>513</v>
+      </c>
+      <c r="C67" s="64" t="s">
+        <v>687</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
       <c r="I67" s="6"/>
       <c r="J67" s="6"/>
       <c r="K67" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L67" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="N67" s="6"/>
       <c r="O67" s="6"/>
-      <c r="P67" s="70" t="s">
-        <v>1030</v>
+      <c r="P67" s="68" t="s">
+        <v>1028</v>
+      </c>
+      <c r="Q67" s="64" t="s">
+        <v>1036</v>
       </c>
       <c r="R67" s="6"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="C68" s="66" t="s">
-        <v>690</v>
+        <v>515</v>
+      </c>
+      <c r="C68" s="64" t="s">
+        <v>688</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
       <c r="I68" s="6"/>
       <c r="J68" s="6"/>
       <c r="K68" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L68" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
-      <c r="P68" s="70" t="s">
-        <v>1031</v>
+      <c r="P68" s="68" t="s">
+        <v>1029</v>
       </c>
       <c r="Q68" s="6"/>
       <c r="R68" s="6"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C69" s="67" t="s">
-        <v>529</v>
+        <v>345</v>
+      </c>
+      <c r="C69" s="65" t="s">
+        <v>527</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
       <c r="K69" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L69" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M69" s="6" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
@@ -6240,22 +6293,22 @@
       <c r="Q69" s="6"/>
       <c r="R69" s="6"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C70" s="67" t="s">
-        <v>555</v>
+        <v>265</v>
+      </c>
+      <c r="C70" s="65" t="s">
+        <v>553</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
@@ -6266,7 +6319,7 @@
         <v>2</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N70" s="6"/>
       <c r="O70" s="6"/>
@@ -6274,22 +6327,22 @@
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="C71" s="66" t="s">
-        <v>691</v>
+        <v>278</v>
+      </c>
+      <c r="C71" s="64" t="s">
+        <v>689</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F71" s="66" t="s">
-        <v>824</v>
+      <c r="F71" s="64" t="s">
+        <v>822</v>
       </c>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
@@ -6306,7 +6359,7 @@
       <c r="Q71" s="6"/>
       <c r="R71" s="6"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
         <v>45</v>
       </c>
@@ -6332,7 +6385,7 @@
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
         <v>46</v>
       </c>
@@ -6357,7 +6410,7 @@
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
         <v>47</v>
       </c>
@@ -6383,7 +6436,7 @@
       <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
         <v>48</v>
       </c>
@@ -6407,7 +6460,7 @@
       <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
         <v>49</v>
       </c>
@@ -6431,7 +6484,7 @@
       <c r="P76" s="6"/>
       <c r="R76" s="6"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
         <v>50</v>
       </c>
@@ -6457,7 +6510,7 @@
       <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
         <v>51</v>
       </c>
@@ -6468,7 +6521,7 @@
         <v>2</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
@@ -6484,7 +6537,7 @@
       <c r="Q78" s="6"/>
       <c r="R78" s="6"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
         <v>52</v>
       </c>
@@ -6509,7 +6562,7 @@
       <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A80" s="4" t="s">
         <v>53</v>
       </c>
@@ -6535,7 +6588,7 @@
       <c r="Q80" s="6"/>
       <c r="R80" s="6"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
         <v>54</v>
       </c>
@@ -6560,7 +6613,7 @@
       <c r="Q81" s="6"/>
       <c r="R81" s="6"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
         <v>55</v>
       </c>
@@ -6585,7 +6638,7 @@
       <c r="Q82" s="6"/>
       <c r="R82" s="6"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A83" s="4" t="s">
         <v>56</v>
       </c>
@@ -6611,7 +6664,7 @@
       <c r="Q83" s="6"/>
       <c r="R83" s="6"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
         <v>57</v>
       </c>
@@ -6637,7 +6690,7 @@
       <c r="Q84" s="6"/>
       <c r="R84" s="6"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
         <v>58</v>
       </c>
@@ -6663,7 +6716,7 @@
       <c r="Q85" s="6"/>
       <c r="R85" s="6"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A86" s="4" t="s">
         <v>59</v>
       </c>
@@ -6688,7 +6741,7 @@
       <c r="Q86" s="6"/>
       <c r="R86" s="6"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
         <v>60</v>
       </c>
@@ -6714,7 +6767,7 @@
       <c r="Q87" s="6"/>
       <c r="R87" s="6"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
         <v>61</v>
       </c>
@@ -6738,7 +6791,7 @@
       <c r="Q88" s="6"/>
       <c r="R88" s="6"/>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A89" s="4" t="s">
         <v>62</v>
       </c>
@@ -6764,7 +6817,7 @@
       <c r="Q89" s="6"/>
       <c r="R89" s="6"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
         <v>63</v>
       </c>
@@ -6790,7 +6843,7 @@
       <c r="Q90" s="6"/>
       <c r="R90" s="6"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A91" s="4" t="s">
         <v>64</v>
       </c>
@@ -6815,7 +6868,7 @@
       <c r="Q91" s="6"/>
       <c r="R91" s="6"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
         <v>65</v>
       </c>
@@ -6840,7 +6893,7 @@
       <c r="Q92" s="6"/>
       <c r="R92" s="6"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
         <v>66</v>
       </c>
@@ -6865,7 +6918,7 @@
       <c r="Q93" s="6"/>
       <c r="R93" s="6"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A94" s="4" t="s">
         <v>67</v>
       </c>
@@ -6891,334 +6944,338 @@
       <c r="Q94" s="6"/>
       <c r="R94" s="6"/>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A95" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="C95" s="66" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D95" s="66" t="s">
-        <v>763</v>
+        <v>519</v>
+      </c>
+      <c r="C95" s="64" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D95" s="64" t="s">
+        <v>761</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="G95" s="66" t="s">
-        <v>721</v>
-      </c>
-      <c r="H95" s="66" t="s">
-        <v>733</v>
-      </c>
-      <c r="I95" s="66" t="s">
-        <v>739</v>
-      </c>
-      <c r="J95" s="66" t="s">
+        <v>547</v>
+      </c>
+      <c r="G95" s="64" t="s">
+        <v>719</v>
+      </c>
+      <c r="H95" s="64" t="s">
+        <v>731</v>
+      </c>
+      <c r="I95" s="64" t="s">
         <v>737</v>
       </c>
+      <c r="J95" s="64" t="s">
+        <v>735</v>
+      </c>
       <c r="K95" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L95" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M95" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="N95" s="67" t="s">
-        <v>354</v>
-      </c>
-      <c r="O95" s="66" t="s">
-        <v>752</v>
+        <v>341</v>
+      </c>
+      <c r="N95" s="65" t="s">
+        <v>353</v>
+      </c>
+      <c r="O95" s="64" t="s">
+        <v>750</v>
       </c>
       <c r="P95" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q95" s="66" t="s">
-        <v>753</v>
-      </c>
-      <c r="R95" s="66" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="Q95" s="64" t="s">
+        <v>751</v>
+      </c>
+      <c r="R95" s="64" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A96" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C96" s="6"/>
-      <c r="D96" s="66" t="s">
-        <v>764</v>
+      <c r="D96" s="64" t="s">
+        <v>762</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="G96" s="66" t="s">
-        <v>726</v>
-      </c>
-      <c r="H96" s="66" t="s">
-        <v>727</v>
-      </c>
-      <c r="I96" s="66" t="s">
-        <v>735</v>
-      </c>
-      <c r="J96" s="66" t="s">
-        <v>742</v>
+        <v>300</v>
+      </c>
+      <c r="G96" s="64" t="s">
+        <v>724</v>
+      </c>
+      <c r="H96" s="64" t="s">
+        <v>725</v>
+      </c>
+      <c r="I96" s="64" t="s">
+        <v>733</v>
+      </c>
+      <c r="J96" s="64" t="s">
+        <v>740</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L96" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M96" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="N96" s="67" t="s">
-        <v>355</v>
-      </c>
-      <c r="O96" s="66" t="s">
-        <v>749</v>
+        <v>579</v>
+      </c>
+      <c r="N96" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="O96" s="64" t="s">
+        <v>747</v>
       </c>
       <c r="P96" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="Q96" s="74" t="s">
-        <v>754</v>
-      </c>
-      <c r="R96" s="66" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+      <c r="Q96" s="72" t="s">
+        <v>752</v>
+      </c>
+      <c r="R96" s="64" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A97" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B97" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="65" t="s">
+        <v>763</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="G97" s="64" t="s">
+        <v>720</v>
+      </c>
+      <c r="H97" s="64" t="s">
+        <v>726</v>
+      </c>
+      <c r="I97" s="64" t="s">
+        <v>736</v>
+      </c>
+      <c r="J97" s="64" t="s">
+        <v>738</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="L97" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M97" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="N97" s="64" t="s">
+        <v>745</v>
+      </c>
+      <c r="O97" s="71" t="s">
+        <v>748</v>
+      </c>
+      <c r="P97" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q97" s="68" t="s">
+        <v>753</v>
+      </c>
+      <c r="R97" s="64" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A98" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="B98" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="C97" s="6"/>
-      <c r="D97" s="67" t="s">
-        <v>765</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="G97" s="66" t="s">
-        <v>722</v>
-      </c>
-      <c r="H97" s="66" t="s">
-        <v>728</v>
-      </c>
-      <c r="I97" s="66" t="s">
-        <v>738</v>
-      </c>
-      <c r="J97" s="66" t="s">
-        <v>740</v>
-      </c>
-      <c r="K97" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="L97" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M97" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="N97" s="66" t="s">
-        <v>747</v>
-      </c>
-      <c r="O97" s="73" t="s">
-        <v>750</v>
-      </c>
-      <c r="P97" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="Q97" s="70" t="s">
-        <v>755</v>
-      </c>
-      <c r="R97" s="66" t="s">
+      <c r="C98" s="6"/>
+      <c r="D98" s="65" t="s">
+        <v>764</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="G98" s="64" t="s">
+        <v>721</v>
+      </c>
+      <c r="H98" s="64" t="s">
+        <v>732</v>
+      </c>
+      <c r="I98" s="64" t="s">
+        <v>734</v>
+      </c>
+      <c r="J98" s="64" t="s">
+        <v>739</v>
+      </c>
+      <c r="K98" s="64" t="s">
+        <v>823</v>
+      </c>
+      <c r="L98" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M98" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="N98" s="64" t="s">
+        <v>743</v>
+      </c>
+      <c r="O98" s="71" t="s">
+        <v>749</v>
+      </c>
+      <c r="P98" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="Q98" s="65" t="s">
+        <v>754</v>
+      </c>
+      <c r="R98" s="64" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="C98" s="6"/>
-      <c r="D98" s="67" t="s">
-        <v>766</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="G98" s="66" t="s">
-        <v>723</v>
-      </c>
-      <c r="H98" s="66" t="s">
-        <v>734</v>
-      </c>
-      <c r="I98" s="66" t="s">
-        <v>736</v>
-      </c>
-      <c r="J98" s="66" t="s">
-        <v>741</v>
-      </c>
-      <c r="K98" s="66" t="s">
-        <v>825</v>
-      </c>
-      <c r="L98" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M98" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="N98" s="66" t="s">
-        <v>745</v>
-      </c>
-      <c r="O98" s="73" t="s">
-        <v>751</v>
-      </c>
-      <c r="P98" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q98" s="67" t="s">
-        <v>756</v>
-      </c>
-      <c r="R98" s="66" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A99" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C99" s="6"/>
-      <c r="D99" s="67" t="s">
-        <v>767</v>
+      <c r="D99" s="65" t="s">
+        <v>765</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="G99" s="66" t="s">
-        <v>724</v>
-      </c>
-      <c r="H99" s="66" t="s">
-        <v>729</v>
-      </c>
-      <c r="I99" s="66" t="s">
-        <v>762</v>
-      </c>
-      <c r="J99" s="66" t="s">
-        <v>743</v>
-      </c>
-      <c r="K99" s="66" t="s">
-        <v>826</v>
+        <v>347</v>
+      </c>
+      <c r="G99" s="64" t="s">
+        <v>722</v>
+      </c>
+      <c r="H99" s="64" t="s">
+        <v>727</v>
+      </c>
+      <c r="I99" s="64" t="s">
+        <v>760</v>
+      </c>
+      <c r="J99" s="64" t="s">
+        <v>741</v>
+      </c>
+      <c r="K99" s="64" t="s">
+        <v>824</v>
       </c>
       <c r="L99" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M99" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="N99" s="66" t="s">
-        <v>748</v>
-      </c>
-      <c r="O99" s="73" t="s">
-        <v>813</v>
-      </c>
-      <c r="P99" s="6"/>
+        <v>324</v>
+      </c>
+      <c r="N99" s="64" t="s">
+        <v>746</v>
+      </c>
+      <c r="O99" s="71" t="s">
+        <v>811</v>
+      </c>
+      <c r="P99" s="72" t="s">
+        <v>1042</v>
+      </c>
       <c r="Q99" s="6"/>
-      <c r="R99" s="66" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R99" s="64" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A100" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B100" s="66" t="s">
-        <v>827</v>
+      <c r="B100" s="64" t="s">
+        <v>825</v>
       </c>
       <c r="C100" s="6"/>
-      <c r="D100" s="68"/>
+      <c r="D100" s="66"/>
       <c r="E100" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="G100" s="66" t="s">
-        <v>725</v>
-      </c>
-      <c r="H100" s="66" t="s">
-        <v>730</v>
-      </c>
-      <c r="I100" s="66" t="s">
-        <v>811</v>
-      </c>
-      <c r="J100" s="66" t="s">
-        <v>744</v>
+        <v>343</v>
+      </c>
+      <c r="G100" s="64" t="s">
+        <v>723</v>
+      </c>
+      <c r="H100" s="64" t="s">
+        <v>728</v>
+      </c>
+      <c r="I100" s="64" t="s">
+        <v>809</v>
+      </c>
+      <c r="J100" s="64" t="s">
+        <v>742</v>
       </c>
       <c r="K100" s="6"/>
       <c r="L100" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M100" s="6" t="s">
-        <v>778</v>
-      </c>
-      <c r="N100" s="66" t="s">
-        <v>746</v>
+        <v>776</v>
+      </c>
+      <c r="N100" s="64" t="s">
+        <v>744</v>
       </c>
       <c r="O100" s="6"/>
       <c r="P100" s="6"/>
       <c r="Q100" s="6"/>
-      <c r="R100" s="70" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R100" s="68" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A101" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B101" s="6"/>
+      <c r="B101" s="6" t="s">
+        <v>1043</v>
+      </c>
       <c r="C101" s="6"/>
-      <c r="D101" s="68"/>
+      <c r="D101" s="66"/>
       <c r="E101" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G101" s="6"/>
-      <c r="H101" s="66" t="s">
-        <v>731</v>
-      </c>
-      <c r="I101" s="66" t="s">
-        <v>812</v>
+      <c r="H101" s="64" t="s">
+        <v>729</v>
+      </c>
+      <c r="I101" s="64" t="s">
+        <v>810</v>
       </c>
       <c r="J101" s="11"/>
       <c r="K101" s="7"/>
@@ -7226,79 +7283,79 @@
         <v>2</v>
       </c>
       <c r="M101" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="N101" s="66" t="s">
-        <v>818</v>
+        <v>582</v>
+      </c>
+      <c r="N101" s="64" t="s">
+        <v>816</v>
       </c>
       <c r="O101" s="6"/>
       <c r="P101" s="6"/>
       <c r="Q101" s="6"/>
-      <c r="R101" s="70" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R101" s="68" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B102" s="7"/>
       <c r="C102" s="6"/>
-      <c r="D102" s="68"/>
+      <c r="D102" s="66"/>
       <c r="E102" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G102" s="6"/>
-      <c r="H102" s="66" t="s">
-        <v>732</v>
+      <c r="H102" s="64" t="s">
+        <v>730</v>
       </c>
       <c r="I102" s="6"/>
       <c r="K102" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="L102" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M102" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="N102" s="6"/>
+        <v>584</v>
+      </c>
+      <c r="N102" s="64"/>
       <c r="O102" s="6"/>
       <c r="P102" s="6"/>
-      <c r="R102" s="70" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R102" s="68" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A103" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B103" s="7"/>
       <c r="C103" s="6"/>
-      <c r="D103" s="68"/>
+      <c r="D103" s="66"/>
       <c r="E103" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G103" s="6"/>
-      <c r="H103" s="66" t="s">
-        <v>808</v>
+      <c r="H103" s="64" t="s">
+        <v>806</v>
       </c>
       <c r="I103" s="6"/>
       <c r="J103" s="11"/>
       <c r="K103" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="L103" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M103" s="66" t="s">
-        <v>1025</v>
+      <c r="M103" s="64" t="s">
+        <v>1023</v>
       </c>
       <c r="N103" s="6"/>
       <c r="O103" s="6"/>
@@ -7306,31 +7363,31 @@
       <c r="Q103" s="6"/>
       <c r="R103" s="6"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A104" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B104" s="7"/>
       <c r="C104" s="6"/>
-      <c r="D104" s="68"/>
+      <c r="D104" s="66"/>
       <c r="E104" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
       <c r="I104" s="6"/>
       <c r="J104" s="11"/>
       <c r="K104" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L104" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M104" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N104" s="6"/>
       <c r="O104" s="6"/>
@@ -7338,41 +7395,41 @@
       <c r="Q104" s="6"/>
       <c r="R104" s="6"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
-      <c r="D105" s="68"/>
+      <c r="D105" s="66"/>
       <c r="E105" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
       <c r="I105" s="6"/>
       <c r="J105" s="11"/>
       <c r="K105" s="6" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="L105" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M105" s="6" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="N105" s="6"/>
       <c r="O105" s="6"/>
       <c r="P105" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q105" s="6"/>
       <c r="R105" s="6"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A106" s="4" t="s">
         <v>78</v>
       </c>
@@ -7383,30 +7440,30 @@
         <v>2</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
       <c r="I106" s="6"/>
       <c r="J106" s="2"/>
       <c r="K106" s="6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="L106" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M106" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N106" s="6"/>
       <c r="O106" s="6"/>
       <c r="P106" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="Q106" s="6"/>
       <c r="R106" s="6"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A107" s="4" t="s">
         <v>79</v>
       </c>
@@ -7431,7 +7488,7 @@
       <c r="Q107" s="6"/>
       <c r="R107" s="6"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A108" s="4" t="s">
         <v>80</v>
       </c>
@@ -7457,12 +7514,12 @@
       <c r="Q108" s="6"/>
       <c r="R108" s="6"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A109" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -7470,26 +7527,26 @@
         <v>2</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="G109" s="66" t="s">
-        <v>804</v>
+        <v>308</v>
+      </c>
+      <c r="G109" s="64" t="s">
+        <v>802</v>
       </c>
       <c r="H109" s="6"/>
-      <c r="I109" s="66" t="s">
-        <v>809</v>
-      </c>
-      <c r="J109" s="66" t="s">
-        <v>820</v>
+      <c r="I109" s="64" t="s">
+        <v>807</v>
+      </c>
+      <c r="J109" s="64" t="s">
+        <v>818</v>
       </c>
       <c r="K109" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="L109" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M109" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N109" s="8"/>
       <c r="O109" s="6"/>
@@ -7497,12 +7554,12 @@
       <c r="Q109" s="6"/>
       <c r="R109" s="6"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A110" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -7510,41 +7567,41 @@
         <v>2</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="G110" s="66" t="s">
-        <v>805</v>
+        <v>565</v>
+      </c>
+      <c r="G110" s="64" t="s">
+        <v>803</v>
       </c>
       <c r="H110" s="6"/>
-      <c r="I110" s="66" t="s">
-        <v>810</v>
-      </c>
-      <c r="J110" s="66" t="s">
-        <v>821</v>
+      <c r="I110" s="64" t="s">
+        <v>808</v>
+      </c>
+      <c r="J110" s="64" t="s">
+        <v>819</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="L110" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M110" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="N110" s="8"/>
       <c r="O110" s="6"/>
       <c r="P110" s="6" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="Q110" s="6"/>
       <c r="R110" s="6"/>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A111" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -7552,39 +7609,39 @@
         <v>2</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="G111" s="66" t="s">
-        <v>806</v>
+        <v>558</v>
+      </c>
+      <c r="G111" s="64" t="s">
+        <v>804</v>
       </c>
       <c r="H111" s="6"/>
       <c r="I111" s="6"/>
-      <c r="J111" s="67" t="s">
-        <v>1027</v>
+      <c r="J111" s="65" t="s">
+        <v>1025</v>
       </c>
       <c r="K111" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L111" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M111" s="6" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="N111" s="8"/>
       <c r="O111" s="6"/>
       <c r="P111" s="6" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="Q111" s="6"/>
       <c r="R111" s="6"/>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A112" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -7592,39 +7649,39 @@
         <v>2</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="G112" s="66" t="s">
-        <v>807</v>
+        <v>283</v>
+      </c>
+      <c r="G112" s="64" t="s">
+        <v>805</v>
       </c>
       <c r="H112" s="6"/>
       <c r="I112" s="6"/>
-      <c r="J112" s="67" t="s">
-        <v>1029</v>
+      <c r="J112" s="65" t="s">
+        <v>1027</v>
       </c>
       <c r="K112" s="6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="L112" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M112" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N112" s="6"/>
       <c r="O112" s="6"/>
       <c r="P112" s="6" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="Q112" s="6"/>
       <c r="R112" s="6"/>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A113" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -7635,8 +7692,8 @@
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
       <c r="I113" s="6"/>
-      <c r="J113" s="67" t="s">
-        <v>1028</v>
+      <c r="J113" s="65" t="s">
+        <v>1026</v>
       </c>
       <c r="K113" s="6"/>
       <c r="L113" s="6" t="s">
@@ -7646,12 +7703,12 @@
       <c r="N113" s="6"/>
       <c r="O113" s="6"/>
       <c r="P113" s="6" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="Q113" s="6"/>
       <c r="R113" s="6"/>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A114" s="4" t="s">
         <v>86</v>
       </c>
@@ -7676,7 +7733,7 @@
       <c r="Q114" s="6"/>
       <c r="R114" s="6"/>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A115" s="4" t="s">
         <v>87</v>
       </c>
@@ -7702,7 +7759,7 @@
       <c r="Q115" s="6"/>
       <c r="R115" s="6"/>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A116" s="4" t="s">
         <v>88</v>
       </c>
@@ -7726,7 +7783,7 @@
       <c r="Q116" s="6"/>
       <c r="R116" s="6"/>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A117" s="4" t="s">
         <v>89</v>
       </c>
@@ -7752,7 +7809,7 @@
       <c r="Q117" s="6"/>
       <c r="R117" s="6"/>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A118" s="4" t="s">
         <v>90</v>
       </c>
@@ -7777,7 +7834,7 @@
       <c r="Q118" s="6"/>
       <c r="R118" s="6"/>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A119" s="4" t="s">
         <v>91</v>
       </c>
@@ -7803,7 +7860,7 @@
       <c r="Q119" s="6"/>
       <c r="R119" s="6"/>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A120" s="4" t="s">
         <v>92</v>
       </c>
@@ -7827,7 +7884,7 @@
       <c r="Q120" s="6"/>
       <c r="R120" s="6"/>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A121" s="4" t="s">
         <v>93</v>
       </c>
@@ -7853,7 +7910,7 @@
       <c r="Q121" s="6"/>
       <c r="R121" s="6"/>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
         <v>94</v>
       </c>
@@ -7879,7 +7936,7 @@
       <c r="Q122" s="6"/>
       <c r="R122" s="6"/>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A123" s="4" t="s">
         <v>95</v>
       </c>
@@ -7895,7 +7952,7 @@
       <c r="I123" s="6"/>
       <c r="J123" s="6"/>
       <c r="K123" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L123" s="6" t="s">
         <v>2</v>
@@ -7907,7 +7964,7 @@
       <c r="Q123" s="6"/>
       <c r="R123" s="6"/>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A124" s="4" t="s">
         <v>96</v>
       </c>
@@ -7923,13 +7980,13 @@
       <c r="I124" s="6"/>
       <c r="J124" s="6"/>
       <c r="K124" s="6" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="L124" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M124" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N124" s="6"/>
       <c r="O124" s="6"/>
@@ -7937,7 +7994,7 @@
       <c r="Q124" s="6"/>
       <c r="R124" s="6"/>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A125" s="4" t="s">
         <v>117</v>
       </c>
@@ -7957,7 +8014,7 @@
         <v>2</v>
       </c>
       <c r="M125" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N125" s="6"/>
       <c r="O125" s="6"/>
@@ -7965,7 +8022,7 @@
       <c r="Q125" s="6"/>
       <c r="R125" s="6"/>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A126" s="4" t="s">
         <v>118</v>
       </c>
@@ -7991,7 +8048,7 @@
       <c r="Q126" s="6"/>
       <c r="R126" s="6"/>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A127" s="4" t="s">
         <v>97</v>
       </c>
@@ -8017,7 +8074,7 @@
       <c r="Q127" s="6"/>
       <c r="R127" s="6"/>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
@@ -8037,8 +8094,8 @@
       <c r="Q128" s="6"/>
       <c r="R128" s="6"/>
     </row>
-    <row r="130" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B130" s="59" t="s">
+    <row r="130" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B130" s="86" t="s">
         <v>112</v>
       </c>
       <c r="L130" s="13"/>
@@ -8049,25 +8106,25 @@
       <c r="Q130" s="14"/>
       <c r="R130" s="14"/>
     </row>
-    <row r="131" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B131" s="60" t="s">
-        <v>430</v>
+    <row r="131" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B131" s="87" t="s">
+        <v>1046</v>
       </c>
       <c r="M131" s="15"/>
       <c r="N131" s="15"/>
       <c r="O131" s="15"/>
       <c r="P131" s="15"/>
     </row>
-    <row r="132" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B132" s="60" t="s">
-        <v>1036</v>
+    <row r="132" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B132" s="87" t="s">
+        <v>1045</v>
       </c>
       <c r="M132" s="15"/>
       <c r="N132" s="15"/>
       <c r="O132" s="15"/>
       <c r="P132" s="15"/>
     </row>
-    <row r="133" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:18" ht="14.25" x14ac:dyDescent="0.15">
       <c r="M133" s="15"/>
       <c r="N133" s="15"/>
       <c r="O133" s="15"/>
@@ -8079,7 +8136,7 @@
   <pageMargins left="0.2" right="0.2" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="42" fitToHeight="3" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"-,Bold"&amp;14FINAL EXAM TIMETABLE FOR JANUARY 2019 SEMESTER - ATHI -RIVER CAMPUS</oddHeader>
+    <oddHeader>&amp;L&amp;"-,Bold"&amp;14FINAL EXAM TIMETABLE FOR JANUARY 2020 SEMESTER - ATHI -RIVER CAMPUS</oddHeader>
     <oddFooter>Page &amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
@@ -8095,34 +8152,34 @@
   </sheetPr>
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView topLeftCell="A56" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O59" sqref="O59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="17" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="17" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="17" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="17" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" style="17" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17" style="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="10.625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6796875" style="17" customWidth="1"/>
+    <col min="3" max="3" width="17.75390625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="16.94921875" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.04296875" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="18.29296875" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.0078125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="14.390625" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="15.19921875" style="17" customWidth="1"/>
+    <col min="12" max="12" width="20.3125" style="17" customWidth="1"/>
+    <col min="13" max="13" width="17.62109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.75390625" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.94921875" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5625" style="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.94921875" style="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.14453125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="28"/>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -8142,37 +8199,37 @@
       <c r="Q1" s="30"/>
       <c r="R1" s="29"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="16"/>
       <c r="B2" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
@@ -8180,7 +8237,7 @@
         <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>105</v>
@@ -8201,7 +8258,7 @@
         <v>106</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>105</v>
@@ -8222,13 +8279,13 @@
         <v>106</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>104</v>
       </c>
@@ -8249,11 +8306,11 @@
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
       <c r="O4" s="19"/>
-      <c r="P4" s="83"/>
+      <c r="P4" s="81"/>
       <c r="Q4" s="18"/>
       <c r="R4" s="6"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
         <v>110</v>
       </c>
@@ -8275,11 +8332,11 @@
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
       <c r="O5" s="19"/>
-      <c r="P5" s="83"/>
+      <c r="P5" s="81"/>
       <c r="Q5" s="18"/>
       <c r="R5" s="6"/>
     </row>
-    <row r="6" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
@@ -8301,11 +8358,11 @@
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
       <c r="O6" s="19"/>
-      <c r="P6" s="83"/>
+      <c r="P6" s="81"/>
       <c r="Q6" s="18"/>
       <c r="R6" s="6"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
@@ -8326,16 +8383,16 @@
       </c>
       <c r="N7" s="18"/>
       <c r="O7" s="19"/>
-      <c r="P7" s="83"/>
+      <c r="P7" s="81"/>
       <c r="Q7" s="18"/>
       <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -8352,20 +8409,20 @@
         <v>2</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="N8" s="18"/>
       <c r="O8" s="19"/>
-      <c r="P8" s="83"/>
+      <c r="P8" s="81"/>
       <c r="Q8" s="18"/>
       <c r="R8" s="6"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="20"/>
@@ -8375,35 +8432,35 @@
       <c r="F9" s="18"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="64" t="s">
-        <v>988</v>
+      <c r="I9" s="62" t="s">
+        <v>986</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>622</v>
-      </c>
-      <c r="K9" s="84" t="s">
+        <v>620</v>
+      </c>
+      <c r="K9" s="82" t="s">
+        <v>881</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="62" t="s">
         <v>883</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M9" s="64" t="s">
-        <v>885</v>
-      </c>
       <c r="N9" s="18"/>
-      <c r="O9" s="64" t="s">
-        <v>992</v>
-      </c>
-      <c r="P9" s="83"/>
+      <c r="O9" s="62" t="s">
+        <v>990</v>
+      </c>
+      <c r="P9" s="81"/>
       <c r="Q9" s="18"/>
       <c r="R9" s="6"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="18"/>
@@ -8413,74 +8470,74 @@
       <c r="F10" s="18"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="64" t="s">
+      <c r="I10" s="62" t="s">
+        <v>987</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="K10" s="82" t="s">
+        <v>882</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="62" t="s">
         <v>989</v>
       </c>
-      <c r="J10" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="K10" s="84" t="s">
-        <v>884</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M10" s="64" t="s">
-        <v>991</v>
-      </c>
       <c r="N10" s="18"/>
-      <c r="O10" s="64" t="s">
-        <v>997</v>
-      </c>
-      <c r="P10" s="83"/>
+      <c r="O10" s="62" t="s">
+        <v>995</v>
+      </c>
+      <c r="P10" s="81"/>
       <c r="Q10" s="18"/>
       <c r="R10" s="6"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="64" t="s">
-        <v>832</v>
-      </c>
-      <c r="C11" s="64" t="s">
-        <v>832</v>
-      </c>
-      <c r="D11" s="64" t="s">
-        <v>832</v>
+      <c r="B11" s="62" t="s">
+        <v>830</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>830</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>830</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="64" t="s">
-        <v>984</v>
+      <c r="F11" s="62" t="s">
+        <v>982</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="64" t="s">
-        <v>990</v>
+      <c r="I11" s="62" t="s">
+        <v>988</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>372</v>
-      </c>
-      <c r="K11" s="64" t="s">
-        <v>1006</v>
+        <v>371</v>
+      </c>
+      <c r="K11" s="62" t="s">
+        <v>1004</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M11" s="64" t="s">
-        <v>994</v>
+      <c r="M11" s="62" t="s">
+        <v>992</v>
       </c>
       <c r="N11" s="18"/>
-      <c r="O11" s="64" t="s">
-        <v>998</v>
-      </c>
-      <c r="P11" s="83"/>
+      <c r="O11" s="62" t="s">
+        <v>996</v>
+      </c>
+      <c r="P11" s="81"/>
       <c r="Q11" s="18"/>
       <c r="R11" s="6"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
         <v>11</v>
       </c>
@@ -8490,89 +8547,89 @@
       <c r="E12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="64" t="s">
-        <v>985</v>
+      <c r="F12" s="62" t="s">
+        <v>983</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="64" t="s">
-        <v>1003</v>
+      <c r="K12" s="62" t="s">
+        <v>1001</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M12" s="64" t="s">
-        <v>995</v>
+      <c r="M12" s="62" t="s">
+        <v>993</v>
       </c>
       <c r="N12" s="18"/>
       <c r="O12" s="19"/>
-      <c r="P12" s="83"/>
+      <c r="P12" s="81"/>
       <c r="Q12" s="18"/>
       <c r="R12" s="6"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="64" t="s">
-        <v>986</v>
+      <c r="F13" s="62" t="s">
+        <v>984</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
-      <c r="K13" s="64" t="s">
-        <v>1004</v>
+      <c r="K13" s="62" t="s">
+        <v>1002</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M13" s="64" t="s">
-        <v>996</v>
+      <c r="M13" s="62" t="s">
+        <v>994</v>
       </c>
       <c r="N13" s="18"/>
       <c r="O13" s="21"/>
-      <c r="P13" s="83"/>
+      <c r="P13" s="81"/>
       <c r="Q13" s="18"/>
       <c r="R13" s="6"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="64" t="s">
-        <v>987</v>
+      <c r="F14" s="62" t="s">
+        <v>985</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="6"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
-      <c r="K14" s="64" t="s">
-        <v>1005</v>
+      <c r="K14" s="62" t="s">
+        <v>1003</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>2</v>
@@ -8580,20 +8637,20 @@
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
       <c r="O14" s="19"/>
-      <c r="P14" s="83"/>
+      <c r="P14" s="81"/>
       <c r="Q14" s="18"/>
       <c r="R14" s="6"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>2</v>
@@ -8610,13 +8667,13 @@
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
       <c r="O15" s="21"/>
-      <c r="P15" s="83"/>
+      <c r="P15" s="81"/>
       <c r="Q15" s="18"/>
       <c r="R15" s="6" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
         <v>15</v>
       </c>
@@ -8638,15 +8695,15 @@
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
       <c r="O16" s="21"/>
-      <c r="P16" s="83" t="s">
-        <v>641</v>
+      <c r="P16" s="81" t="s">
+        <v>639</v>
       </c>
       <c r="Q16" s="18"/>
       <c r="R16" s="6" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="16" t="s">
         <v>16</v>
       </c>
@@ -8668,15 +8725,15 @@
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
       <c r="O17" s="19"/>
-      <c r="P17" s="83" t="s">
-        <v>643</v>
+      <c r="P17" s="81" t="s">
+        <v>641</v>
       </c>
       <c r="Q17" s="18"/>
       <c r="R17" s="18" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="16" t="s">
         <v>17</v>
       </c>
@@ -8697,15 +8754,15 @@
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
       <c r="O18" s="19"/>
-      <c r="P18" s="83" t="s">
-        <v>644</v>
+      <c r="P18" s="81" t="s">
+        <v>642</v>
       </c>
       <c r="Q18" s="18"/>
       <c r="R18" s="6" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="16" t="s">
         <v>18</v>
       </c>
@@ -8727,11 +8784,11 @@
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
       <c r="O19" s="19"/>
-      <c r="P19" s="83"/>
+      <c r="P19" s="81"/>
       <c r="Q19" s="18"/>
       <c r="R19" s="6"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
         <v>19</v>
       </c>
@@ -8751,13 +8808,13 @@
       </c>
       <c r="N20" s="18"/>
       <c r="O20" s="21"/>
-      <c r="P20" s="83" t="s">
-        <v>389</v>
+      <c r="P20" s="81" t="s">
+        <v>388</v>
       </c>
       <c r="Q20" s="18"/>
       <c r="R20" s="18"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
         <v>20</v>
       </c>
@@ -8782,7 +8839,7 @@
       <c r="Q21" s="18"/>
       <c r="R21" s="22"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
         <v>21</v>
       </c>
@@ -8800,13 +8857,13 @@
       </c>
       <c r="N22" s="18"/>
       <c r="O22" s="21"/>
-      <c r="P22" s="83" t="s">
-        <v>646</v>
+      <c r="P22" s="81" t="s">
+        <v>644</v>
       </c>
       <c r="Q22" s="18"/>
       <c r="R22" s="6"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
         <v>111</v>
       </c>
@@ -8828,476 +8885,476 @@
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
       <c r="O23" s="19"/>
-      <c r="P23" s="83"/>
+      <c r="P23" s="81"/>
       <c r="Q23" s="18"/>
       <c r="R23" s="6"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="62" t="s">
+        <v>829</v>
+      </c>
+      <c r="C24" s="82" t="s">
         <v>831</v>
       </c>
-      <c r="C24" s="84" t="s">
-        <v>833</v>
-      </c>
-      <c r="D24" s="64" t="s">
-        <v>841</v>
+      <c r="D24" s="62" t="s">
+        <v>839</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F24" s="84" t="s">
-        <v>847</v>
-      </c>
-      <c r="G24" s="64" t="s">
+      <c r="F24" s="82" t="s">
+        <v>845</v>
+      </c>
+      <c r="G24" s="62" t="s">
+        <v>854</v>
+      </c>
+      <c r="H24" s="82" t="s">
         <v>856</v>
       </c>
-      <c r="H24" s="84" t="s">
-        <v>858</v>
-      </c>
-      <c r="I24" s="63" t="s">
-        <v>865</v>
+      <c r="I24" s="61" t="s">
+        <v>863</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="K24" s="84" t="s">
-        <v>874</v>
+        <v>363</v>
+      </c>
+      <c r="K24" s="82" t="s">
+        <v>872</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M24" s="18" t="s">
-        <v>632</v>
-      </c>
-      <c r="N24" s="84" t="s">
-        <v>887</v>
-      </c>
-      <c r="O24" s="84" t="s">
+        <v>630</v>
+      </c>
+      <c r="N24" s="82" t="s">
+        <v>885</v>
+      </c>
+      <c r="O24" s="82" t="s">
+        <v>895</v>
+      </c>
+      <c r="P24" s="62" t="s">
         <v>897</v>
       </c>
-      <c r="P24" s="64" t="s">
+      <c r="Q24" s="64" t="s">
         <v>899</v>
       </c>
-      <c r="Q24" s="66" t="s">
-        <v>901</v>
-      </c>
-      <c r="R24" s="66" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R24" s="64" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="18"/>
-      <c r="C25" s="84" t="s">
-        <v>834</v>
-      </c>
-      <c r="D25" s="64" t="s">
-        <v>842</v>
+      <c r="C25" s="82" t="s">
+        <v>832</v>
+      </c>
+      <c r="D25" s="62" t="s">
+        <v>840</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="84" t="s">
-        <v>848</v>
-      </c>
-      <c r="G25" s="64" t="s">
-        <v>857</v>
-      </c>
-      <c r="H25" s="84" t="s">
-        <v>860</v>
-      </c>
-      <c r="I25" s="63" t="s">
-        <v>866</v>
-      </c>
-      <c r="J25" s="84" t="s">
-        <v>1020</v>
-      </c>
-      <c r="K25" s="84" t="s">
-        <v>875</v>
+      <c r="F25" s="82" t="s">
+        <v>846</v>
+      </c>
+      <c r="G25" s="62" t="s">
+        <v>855</v>
+      </c>
+      <c r="H25" s="82" t="s">
+        <v>1034</v>
+      </c>
+      <c r="I25" s="61" t="s">
+        <v>864</v>
+      </c>
+      <c r="J25" s="82" t="s">
+        <v>1018</v>
+      </c>
+      <c r="K25" s="82" t="s">
+        <v>873</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M25" s="18" t="s">
-        <v>631</v>
-      </c>
-      <c r="N25" s="72" t="s">
-        <v>888</v>
-      </c>
-      <c r="O25" s="64" t="s">
-        <v>896</v>
-      </c>
-      <c r="P25" s="83"/>
-      <c r="Q25" s="66" t="s">
-        <v>902</v>
-      </c>
-      <c r="R25" s="66" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+        <v>629</v>
+      </c>
+      <c r="N25" s="70" t="s">
+        <v>886</v>
+      </c>
+      <c r="O25" s="62" t="s">
+        <v>894</v>
+      </c>
+      <c r="P25" s="81"/>
+      <c r="Q25" s="64" t="s">
+        <v>900</v>
+      </c>
+      <c r="R25" s="64" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="85" t="s">
-        <v>840</v>
-      </c>
-      <c r="D26" s="84" t="s">
-        <v>843</v>
+      <c r="C26" s="83" t="s">
+        <v>838</v>
+      </c>
+      <c r="D26" s="82" t="s">
+        <v>841</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F26" s="64" t="s">
-        <v>849</v>
+      <c r="F26" s="62" t="s">
+        <v>847</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="H26" s="84" t="s">
-        <v>859</v>
-      </c>
-      <c r="I26" s="72" t="s">
-        <v>868</v>
-      </c>
-      <c r="J26" s="84" t="s">
-        <v>1021</v>
-      </c>
-      <c r="K26" s="84" t="s">
-        <v>876</v>
+        <v>619</v>
+      </c>
+      <c r="H26" s="82" t="s">
+        <v>858</v>
+      </c>
+      <c r="I26" s="70" t="s">
+        <v>866</v>
+      </c>
+      <c r="J26" s="82" t="s">
+        <v>1019</v>
+      </c>
+      <c r="K26" s="82" t="s">
+        <v>874</v>
       </c>
       <c r="L26" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M26" s="18" t="s">
-        <v>633</v>
-      </c>
-      <c r="N26" s="72" t="s">
-        <v>889</v>
-      </c>
-      <c r="P26" s="83" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q26" s="66" t="s">
-        <v>903</v>
-      </c>
-      <c r="R26" s="66" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+        <v>631</v>
+      </c>
+      <c r="N26" s="70" t="s">
+        <v>887</v>
+      </c>
+      <c r="P26" s="81" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q26" s="64" t="s">
+        <v>901</v>
+      </c>
+      <c r="R26" s="64" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>394</v>
-      </c>
-      <c r="C27" s="84" t="s">
-        <v>835</v>
-      </c>
-      <c r="D27" s="84" t="s">
-        <v>844</v>
+        <v>393</v>
+      </c>
+      <c r="C27" s="82" t="s">
+        <v>833</v>
+      </c>
+      <c r="D27" s="82" t="s">
+        <v>842</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="64" t="s">
-        <v>850</v>
+      <c r="F27" s="62" t="s">
+        <v>848</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="H27" s="84" t="s">
-        <v>861</v>
-      </c>
-      <c r="I27" s="63" t="s">
-        <v>869</v>
-      </c>
-      <c r="J27" s="84" t="s">
-        <v>1022</v>
-      </c>
-      <c r="K27" s="84" t="s">
-        <v>877</v>
+        <v>365</v>
+      </c>
+      <c r="H27" s="82" t="s">
+        <v>857</v>
+      </c>
+      <c r="I27" s="61" t="s">
+        <v>867</v>
+      </c>
+      <c r="J27" s="82" t="s">
+        <v>1020</v>
+      </c>
+      <c r="K27" s="82" t="s">
+        <v>875</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M27" s="18" t="s">
-        <v>409</v>
-      </c>
-      <c r="N27" s="84" t="s">
-        <v>788</v>
+        <v>408</v>
+      </c>
+      <c r="N27" s="82" t="s">
+        <v>786</v>
       </c>
       <c r="O27" s="19"/>
-      <c r="P27" s="83" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q27" s="66" t="s">
-        <v>904</v>
-      </c>
-      <c r="R27" s="66" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P27" s="81" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q27" s="64" t="s">
+        <v>902</v>
+      </c>
+      <c r="R27" s="64" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="C28" s="86" t="s">
-        <v>836</v>
+        <v>364</v>
+      </c>
+      <c r="C28" s="84" t="s">
+        <v>834</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="64" t="s">
-        <v>851</v>
+      <c r="F28" s="62" t="s">
+        <v>849</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="H28" s="64" t="s">
-        <v>862</v>
-      </c>
-      <c r="I28" s="63" t="s">
-        <v>870</v>
+        <v>405</v>
+      </c>
+      <c r="H28" s="82" t="s">
+        <v>859</v>
+      </c>
+      <c r="I28" s="61" t="s">
+        <v>868</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>413</v>
-      </c>
-      <c r="K28" s="84" t="s">
-        <v>878</v>
+        <v>412</v>
+      </c>
+      <c r="K28" s="82" t="s">
+        <v>876</v>
       </c>
       <c r="L28" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="N28" s="84" t="s">
-        <v>890</v>
-      </c>
-      <c r="O28" s="64" t="s">
-        <v>898</v>
-      </c>
-      <c r="P28" s="83" t="s">
-        <v>647</v>
-      </c>
-      <c r="Q28" s="66" t="s">
-        <v>905</v>
-      </c>
-      <c r="R28" s="66" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+      <c r="N28" s="82" t="s">
+        <v>888</v>
+      </c>
+      <c r="O28" s="62" t="s">
+        <v>896</v>
+      </c>
+      <c r="P28" s="81" t="s">
+        <v>645</v>
+      </c>
+      <c r="Q28" s="64" t="s">
+        <v>903</v>
+      </c>
+      <c r="R28" s="64" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>616</v>
-      </c>
-      <c r="C29" s="84" t="s">
-        <v>837</v>
+        <v>614</v>
+      </c>
+      <c r="C29" s="82" t="s">
+        <v>835</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="64" t="s">
-        <v>852</v>
+      <c r="F29" s="62" t="s">
+        <v>850</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="H29" s="84" t="s">
-        <v>863</v>
-      </c>
-      <c r="I29" s="69" t="s">
-        <v>867</v>
+        <v>391</v>
+      </c>
+      <c r="H29" s="62" t="s">
+        <v>860</v>
+      </c>
+      <c r="I29" s="67" t="s">
+        <v>865</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>400</v>
-      </c>
-      <c r="K29" s="64" t="s">
-        <v>879</v>
+        <v>399</v>
+      </c>
+      <c r="K29" s="62" t="s">
+        <v>877</v>
       </c>
       <c r="L29" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M29" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="N29" s="84" t="s">
-        <v>891</v>
+        <v>386</v>
+      </c>
+      <c r="N29" s="82" t="s">
+        <v>889</v>
       </c>
       <c r="O29" s="19"/>
-      <c r="P29" s="83" t="s">
-        <v>648</v>
-      </c>
-      <c r="Q29" s="66" t="s">
-        <v>906</v>
-      </c>
-      <c r="R29" s="66" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P29" s="81" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q29" s="64" t="s">
+        <v>904</v>
+      </c>
+      <c r="R29" s="64" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="18"/>
-      <c r="C30" s="84" t="s">
-        <v>838</v>
-      </c>
-      <c r="D30" s="64" t="s">
-        <v>845</v>
+      <c r="C30" s="82" t="s">
+        <v>836</v>
+      </c>
+      <c r="D30" s="62" t="s">
+        <v>843</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F30" s="64" t="s">
-        <v>854</v>
+      <c r="F30" s="62" t="s">
+        <v>852</v>
       </c>
       <c r="G30" s="6"/>
-      <c r="H30" s="84" t="s">
-        <v>864</v>
-      </c>
-      <c r="I30" s="69" t="s">
-        <v>871</v>
+      <c r="H30" s="82" t="s">
+        <v>861</v>
+      </c>
+      <c r="I30" s="67" t="s">
+        <v>869</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="K30" s="64" t="s">
-        <v>880</v>
+        <v>380</v>
+      </c>
+      <c r="K30" s="62" t="s">
+        <v>878</v>
       </c>
       <c r="L30" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M30" s="18" t="s">
-        <v>634</v>
-      </c>
-      <c r="N30" s="84" t="s">
-        <v>892</v>
+        <v>632</v>
+      </c>
+      <c r="N30" s="82" t="s">
+        <v>890</v>
       </c>
       <c r="O30" s="19"/>
       <c r="P30" s="23"/>
-      <c r="Q30" s="67" t="s">
-        <v>791</v>
-      </c>
-      <c r="R30" s="66" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q30" s="65" t="s">
+        <v>789</v>
+      </c>
+      <c r="R30" s="64" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="18"/>
-      <c r="C31" s="84" t="s">
-        <v>839</v>
-      </c>
-      <c r="D31" s="64" t="s">
-        <v>846</v>
+      <c r="C31" s="82" t="s">
+        <v>837</v>
+      </c>
+      <c r="D31" s="62" t="s">
+        <v>844</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="64" t="s">
-        <v>855</v>
+      <c r="F31" s="62" t="s">
+        <v>853</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="H31" s="84" t="s">
-        <v>982</v>
-      </c>
-      <c r="I31" s="69" t="s">
-        <v>872</v>
+        <v>394</v>
+      </c>
+      <c r="H31" s="82" t="s">
+        <v>862</v>
+      </c>
+      <c r="I31" s="67" t="s">
+        <v>870</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="K31" s="64" t="s">
-        <v>881</v>
+        <v>387</v>
+      </c>
+      <c r="K31" s="62" t="s">
+        <v>879</v>
       </c>
       <c r="L31" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M31" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="N31" s="64" t="s">
-        <v>893</v>
+        <v>357</v>
+      </c>
+      <c r="N31" s="62" t="s">
+        <v>891</v>
       </c>
       <c r="O31" s="19"/>
       <c r="P31" s="18"/>
-      <c r="Q31" s="67" t="s">
-        <v>910</v>
-      </c>
-      <c r="R31" s="66" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q31" s="65" t="s">
+        <v>908</v>
+      </c>
+      <c r="R31" s="64" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="19"/>
       <c r="D32" s="18" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="84" t="s">
-        <v>983</v>
-      </c>
-      <c r="I32" s="69" t="s">
-        <v>873</v>
+      <c r="H32" s="82" t="s">
+        <v>980</v>
+      </c>
+      <c r="I32" s="67" t="s">
+        <v>871</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>629</v>
-      </c>
-      <c r="K32" s="64" t="s">
-        <v>882</v>
+        <v>627</v>
+      </c>
+      <c r="K32" s="62" t="s">
+        <v>880</v>
       </c>
       <c r="L32" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M32" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="N32" s="64" t="s">
-        <v>894</v>
+        <v>361</v>
+      </c>
+      <c r="N32" s="62" t="s">
+        <v>892</v>
       </c>
       <c r="O32" s="19"/>
       <c r="P32" s="18"/>
-      <c r="Q32" s="66" t="s">
-        <v>907</v>
-      </c>
-      <c r="R32" s="66" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q32" s="64" t="s">
+        <v>905</v>
+      </c>
+      <c r="R32" s="64" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="16" t="s">
         <v>116</v>
       </c>
@@ -9308,33 +9365,35 @@
       </c>
       <c r="F33" s="18"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+      <c r="H33" s="82" t="s">
+        <v>981</v>
+      </c>
       <c r="I33" s="18"/>
       <c r="J33" s="18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M33" s="18" t="s">
-        <v>635</v>
-      </c>
-      <c r="N33" s="64" t="s">
-        <v>895</v>
+        <v>633</v>
+      </c>
+      <c r="N33" s="62" t="s">
+        <v>893</v>
       </c>
       <c r="O33" s="18"/>
       <c r="P33" s="18"/>
-      <c r="Q33" s="66" t="s">
-        <v>908</v>
-      </c>
-      <c r="R33" s="66" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q33" s="64" t="s">
+        <v>906</v>
+      </c>
+      <c r="R33" s="64" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="16" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="19"/>
@@ -9352,19 +9411,19 @@
         <v>2</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="N34" s="18"/>
       <c r="O34" s="18"/>
       <c r="P34" s="18"/>
-      <c r="Q34" s="66" t="s">
-        <v>909</v>
-      </c>
-      <c r="R34" s="66" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q34" s="64" t="s">
+        <v>907</v>
+      </c>
+      <c r="R34" s="64" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="16" t="s">
         <v>33</v>
       </c>
@@ -9386,13 +9445,13 @@
       <c r="M35" s="18"/>
       <c r="N35" s="18"/>
       <c r="O35" s="18"/>
-      <c r="P35" s="83"/>
+      <c r="P35" s="81"/>
       <c r="Q35" s="18"/>
       <c r="R35" s="6"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="16" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B36" s="18"/>
       <c r="C36" s="19"/>
@@ -9411,11 +9470,11 @@
       <c r="M36" s="18"/>
       <c r="N36" s="18"/>
       <c r="O36" s="20"/>
-      <c r="P36" s="83"/>
+      <c r="P36" s="81"/>
       <c r="Q36" s="18"/>
       <c r="R36" s="6"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="16" t="s">
         <v>35</v>
       </c>
@@ -9437,11 +9496,11 @@
       <c r="M37" s="18"/>
       <c r="N37" s="18"/>
       <c r="O37" s="18"/>
-      <c r="P37" s="83"/>
+      <c r="P37" s="81"/>
       <c r="Q37" s="18"/>
       <c r="R37" s="6"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="16" t="s">
         <v>103</v>
       </c>
@@ -9463,11 +9522,11 @@
       <c r="M38" s="18"/>
       <c r="N38" s="18"/>
       <c r="O38" s="18"/>
-      <c r="P38" s="83"/>
+      <c r="P38" s="81"/>
       <c r="Q38" s="18"/>
       <c r="R38" s="6"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="16" t="s">
         <v>36</v>
       </c>
@@ -9489,11 +9548,11 @@
       <c r="M39" s="18"/>
       <c r="N39" s="18"/>
       <c r="O39" s="18"/>
-      <c r="P39" s="83"/>
+      <c r="P39" s="81"/>
       <c r="Q39" s="18"/>
       <c r="R39" s="6"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="16" t="s">
         <v>37</v>
       </c>
@@ -9515,11 +9574,11 @@
       <c r="M40" s="18"/>
       <c r="N40" s="18"/>
       <c r="O40" s="18"/>
-      <c r="P40" s="83"/>
+      <c r="P40" s="81"/>
       <c r="Q40" s="18"/>
       <c r="R40" s="6"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41" s="16" t="s">
         <v>38</v>
       </c>
@@ -9541,11 +9600,11 @@
       <c r="M41" s="18"/>
       <c r="N41" s="18"/>
       <c r="O41" s="18"/>
-      <c r="P41" s="83"/>
+      <c r="P41" s="81"/>
       <c r="Q41" s="18"/>
       <c r="R41" s="6"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42" s="16" t="s">
         <v>39</v>
       </c>
@@ -9567,11 +9626,11 @@
       <c r="M42" s="18"/>
       <c r="N42" s="18"/>
       <c r="O42" s="18"/>
-      <c r="P42" s="83"/>
+      <c r="P42" s="81"/>
       <c r="Q42" s="18"/>
       <c r="R42" s="6"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43" s="16"/>
       <c r="B43" s="6"/>
       <c r="C43" s="26"/>
@@ -9590,37 +9649,37 @@
       <c r="Q43" s="11"/>
       <c r="R43" s="6"/>
     </row>
-    <row r="44" spans="1:18" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Q44" s="12"/>
       <c r="R44" s="2"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A45" s="16" t="s">
         <v>0</v>
       </c>
@@ -9628,7 +9687,7 @@
         <v>106</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>105</v>
@@ -9649,7 +9708,7 @@
         <v>106</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>105</v>
@@ -9670,13 +9729,13 @@
         <v>106</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="R45" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A46" s="16" t="s">
         <v>104</v>
       </c>
@@ -9701,7 +9760,7 @@
       <c r="Q46" s="6"/>
       <c r="R46" s="18"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47" s="16" t="s">
         <v>110</v>
       </c>
@@ -9727,7 +9786,7 @@
       <c r="Q47" s="6"/>
       <c r="R47" s="18"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A48" s="16" t="s">
         <v>5</v>
       </c>
@@ -9753,7 +9812,7 @@
       <c r="Q48" s="6"/>
       <c r="R48" s="18"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A49" s="16" t="s">
         <v>6</v>
       </c>
@@ -9779,7 +9838,7 @@
       <c r="Q49" s="6"/>
       <c r="R49" s="18"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A50" s="16" t="s">
         <v>7</v>
       </c>
@@ -9805,43 +9864,43 @@
       <c r="Q50" s="6"/>
       <c r="R50" s="18"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A51" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="20"/>
       <c r="E51" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F51" s="66" t="s">
-        <v>1007</v>
+      <c r="F51" s="64" t="s">
+        <v>1005</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="18"/>
-      <c r="J51" s="66" t="s">
-        <v>1010</v>
+      <c r="J51" s="64" t="s">
+        <v>1008</v>
       </c>
       <c r="K51" s="18"/>
       <c r="L51" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M51" s="18"/>
-      <c r="N51" s="66" t="s">
-        <v>1016</v>
+      <c r="N51" s="64" t="s">
+        <v>1014</v>
       </c>
       <c r="O51" s="6"/>
-      <c r="P51" s="67" t="s">
-        <v>1032</v>
+      <c r="P51" s="65" t="s">
+        <v>1030</v>
       </c>
       <c r="Q51" s="6"/>
       <c r="R51" s="20"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A52" s="16" t="s">
         <v>9</v>
       </c>
@@ -9851,28 +9910,30 @@
       <c r="E52" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F52" s="66" t="s">
-        <v>1008</v>
+      <c r="F52" s="64" t="s">
+        <v>1006</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
-      <c r="J52" s="66" t="s">
-        <v>1011</v>
+      <c r="J52" s="64" t="s">
+        <v>1009</v>
       </c>
       <c r="K52" s="18"/>
       <c r="L52" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M52" s="18"/>
-      <c r="N52" s="66" t="s">
-        <v>1017</v>
+      <c r="N52" s="64" t="s">
+        <v>1015</v>
       </c>
       <c r="O52" s="6"/>
-      <c r="P52" s="18"/>
+      <c r="P52" s="64" t="s">
+        <v>1037</v>
+      </c>
       <c r="Q52" s="6"/>
       <c r="R52" s="18"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A53" s="16" t="s">
         <v>10</v>
       </c>
@@ -9882,28 +9943,28 @@
       <c r="E53" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F53" s="66" t="s">
-        <v>1009</v>
+      <c r="F53" s="64" t="s">
+        <v>1007</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="18"/>
-      <c r="J53" s="66" t="s">
-        <v>1012</v>
+      <c r="J53" s="64" t="s">
+        <v>1010</v>
       </c>
       <c r="L53" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M53" s="18"/>
-      <c r="N53" s="66" t="s">
-        <v>1018</v>
+      <c r="N53" s="64" t="s">
+        <v>1016</v>
       </c>
       <c r="O53" s="6"/>
       <c r="P53" s="18"/>
       <c r="Q53" s="6"/>
       <c r="R53" s="18"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A54" s="16" t="s">
         <v>11</v>
       </c>
@@ -9914,32 +9975,32 @@
         <v>2</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="18"/>
-      <c r="J54" s="66" t="s">
-        <v>1013</v>
+      <c r="J54" s="64" t="s">
+        <v>1011</v>
       </c>
       <c r="K54" s="18" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="L54" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M54" s="18" t="s">
-        <v>408</v>
-      </c>
-      <c r="N54" s="66" t="s">
-        <v>1019</v>
+        <v>407</v>
+      </c>
+      <c r="N54" s="64" t="s">
+        <v>1017</v>
       </c>
       <c r="O54" s="6"/>
       <c r="P54" s="18"/>
       <c r="Q54" s="6"/>
       <c r="R54" s="18"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A55" s="16" t="s">
         <v>12</v>
       </c>
@@ -9950,22 +10011,22 @@
         <v>2</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="18"/>
-      <c r="J55" s="66" t="s">
-        <v>1014</v>
+      <c r="J55" s="64" t="s">
+        <v>1012</v>
       </c>
       <c r="K55" s="18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L55" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M55" s="18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
@@ -9973,7 +10034,7 @@
       <c r="Q55" s="6"/>
       <c r="R55" s="18"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A56" s="16" t="s">
         <v>13</v>
       </c>
@@ -9984,21 +10045,21 @@
         <v>2</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G56" s="18"/>
       <c r="H56" s="6"/>
-      <c r="J56" s="66" t="s">
-        <v>1015</v>
+      <c r="J56" s="64" t="s">
+        <v>1013</v>
       </c>
       <c r="K56" s="18" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="L56" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M56" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
@@ -10006,12 +10067,12 @@
       <c r="Q56" s="6"/>
       <c r="R56" s="18"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A57" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="18"/>
@@ -10024,13 +10085,13 @@
       <c r="I57" s="18"/>
       <c r="J57" s="18"/>
       <c r="K57" s="18" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L57" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M57" s="18" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
@@ -10038,12 +10099,12 @@
       <c r="Q57" s="6"/>
       <c r="R57" s="18"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A58" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="18"/>
@@ -10055,13 +10116,13 @@
       <c r="I58" s="18"/>
       <c r="J58" s="18"/>
       <c r="K58" s="18" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="L58" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M58" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
@@ -10069,12 +10130,12 @@
       <c r="Q58" s="6"/>
       <c r="R58" s="18"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A59" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="18"/>
@@ -10094,17 +10155,17 @@
       <c r="N59" s="6"/>
       <c r="O59" s="6"/>
       <c r="P59" s="18" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Q59" s="6"/>
       <c r="R59" s="18"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A60" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="18"/>
@@ -10123,12 +10184,12 @@
       <c r="N60" s="6"/>
       <c r="O60" s="6"/>
       <c r="P60" s="18" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Q60" s="6"/>
       <c r="R60" s="18"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A61" s="16" t="s">
         <v>18</v>
       </c>
@@ -10154,7 +10215,7 @@
       <c r="Q61" s="6"/>
       <c r="R61" s="18"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A62" s="16" t="s">
         <v>19</v>
       </c>
@@ -10178,7 +10239,7 @@
       <c r="P62" s="18"/>
       <c r="R62" s="18"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A63" s="16" t="s">
         <v>20</v>
       </c>
@@ -10204,7 +10265,7 @@
       <c r="Q63" s="6"/>
       <c r="R63" s="18"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A64" s="16" t="s">
         <v>21</v>
       </c>
@@ -10230,7 +10291,7 @@
       <c r="Q64" s="6"/>
       <c r="R64" s="18"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A65" s="16" t="s">
         <v>111</v>
       </c>
@@ -10255,273 +10316,275 @@
       <c r="Q65" s="18"/>
       <c r="R65" s="18"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A66" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B66" s="66" t="s">
+      <c r="B66" s="64" t="s">
+        <v>920</v>
+      </c>
+      <c r="C66" s="64" t="s">
         <v>922</v>
       </c>
-      <c r="C66" s="66" t="s">
-        <v>924</v>
-      </c>
-      <c r="D66" s="66" t="s">
-        <v>928</v>
+      <c r="D66" s="64" t="s">
+        <v>926</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>386</v>
-      </c>
-      <c r="G66" s="66" t="s">
-        <v>932</v>
-      </c>
-      <c r="H66" s="66" t="s">
-        <v>938</v>
-      </c>
-      <c r="I66" s="66" t="s">
-        <v>947</v>
-      </c>
-      <c r="J66" s="66" t="s">
-        <v>956</v>
+        <v>385</v>
+      </c>
+      <c r="G66" s="64" t="s">
+        <v>930</v>
+      </c>
+      <c r="H66" s="64" t="s">
+        <v>936</v>
+      </c>
+      <c r="I66" s="64" t="s">
+        <v>945</v>
+      </c>
+      <c r="J66" s="64" t="s">
+        <v>954</v>
       </c>
       <c r="K66" s="18" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="L66" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M66" s="18" t="s">
-        <v>637</v>
-      </c>
-      <c r="N66" s="67" t="s">
-        <v>964</v>
-      </c>
-      <c r="O66" s="66" t="s">
-        <v>970</v>
-      </c>
-      <c r="P66" s="18"/>
-      <c r="Q66" s="66" t="s">
-        <v>974</v>
-      </c>
-      <c r="R66" s="66" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+      <c r="N66" s="65" t="s">
+        <v>962</v>
+      </c>
+      <c r="O66" s="64" t="s">
+        <v>968</v>
+      </c>
+      <c r="P66" s="64" t="s">
+        <v>1044</v>
+      </c>
+      <c r="Q66" s="64" t="s">
+        <v>972</v>
+      </c>
+      <c r="R66" s="64" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A67" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B67" s="66" t="s">
-        <v>999</v>
-      </c>
-      <c r="C67" s="66" t="s">
-        <v>925</v>
-      </c>
-      <c r="D67" s="66" t="s">
-        <v>929</v>
+      <c r="B67" s="64" t="s">
+        <v>997</v>
+      </c>
+      <c r="C67" s="64" t="s">
+        <v>923</v>
+      </c>
+      <c r="D67" s="64" t="s">
+        <v>927</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>619</v>
-      </c>
-      <c r="G67" s="66" t="s">
-        <v>933</v>
-      </c>
-      <c r="H67" s="66" t="s">
-        <v>939</v>
-      </c>
-      <c r="I67" s="66" t="s">
-        <v>948</v>
-      </c>
-      <c r="J67" s="66" t="s">
-        <v>957</v>
+        <v>617</v>
+      </c>
+      <c r="G67" s="64" t="s">
+        <v>931</v>
+      </c>
+      <c r="H67" s="64" t="s">
+        <v>937</v>
+      </c>
+      <c r="I67" s="64" t="s">
+        <v>946</v>
+      </c>
+      <c r="J67" s="64" t="s">
+        <v>955</v>
       </c>
       <c r="K67" s="18" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L67" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M67" s="18" t="s">
-        <v>401</v>
-      </c>
-      <c r="N67" s="66" t="s">
-        <v>965</v>
-      </c>
-      <c r="O67" s="66" t="s">
-        <v>971</v>
+        <v>400</v>
+      </c>
+      <c r="N67" s="64" t="s">
+        <v>963</v>
+      </c>
+      <c r="O67" s="64" t="s">
+        <v>969</v>
       </c>
       <c r="P67" s="18"/>
-      <c r="Q67" s="74" t="s">
-        <v>975</v>
-      </c>
-      <c r="R67" s="66" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q67" s="72" t="s">
+        <v>973</v>
+      </c>
+      <c r="R67" s="64" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A68" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B68" s="66" t="s">
-        <v>993</v>
-      </c>
-      <c r="C68" s="67" t="s">
-        <v>926</v>
-      </c>
-      <c r="D68" s="67" t="s">
-        <v>930</v>
+      <c r="B68" s="64" t="s">
+        <v>991</v>
+      </c>
+      <c r="C68" s="65" t="s">
+        <v>924</v>
+      </c>
+      <c r="D68" s="65" t="s">
+        <v>928</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F68" s="66" t="s">
-        <v>931</v>
-      </c>
-      <c r="G68" s="66" t="s">
-        <v>934</v>
-      </c>
-      <c r="H68" s="66" t="s">
-        <v>940</v>
-      </c>
-      <c r="I68" s="66" t="s">
-        <v>949</v>
-      </c>
-      <c r="J68" s="66" t="s">
-        <v>958</v>
+      <c r="F68" s="64" t="s">
+        <v>929</v>
+      </c>
+      <c r="G68" s="64" t="s">
+        <v>932</v>
+      </c>
+      <c r="H68" s="64" t="s">
+        <v>938</v>
+      </c>
+      <c r="I68" s="64" t="s">
+        <v>947</v>
+      </c>
+      <c r="J68" s="64" t="s">
+        <v>956</v>
       </c>
       <c r="K68" s="18" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="L68" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M68" s="66" t="s">
-        <v>1026</v>
-      </c>
-      <c r="N68" s="66" t="s">
-        <v>966</v>
-      </c>
-      <c r="O68" s="73" t="s">
-        <v>972</v>
+      <c r="M68" s="64" t="s">
+        <v>1024</v>
+      </c>
+      <c r="N68" s="64" t="s">
+        <v>964</v>
+      </c>
+      <c r="O68" s="71" t="s">
+        <v>970</v>
       </c>
       <c r="P68" s="18"/>
-      <c r="Q68" s="70" t="s">
-        <v>976</v>
-      </c>
-      <c r="R68" s="66" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q68" s="68" t="s">
+        <v>974</v>
+      </c>
+      <c r="R68" s="64" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A69" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B69" s="66" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C69" s="66" t="s">
-        <v>927</v>
-      </c>
-      <c r="D69" s="66" t="s">
-        <v>1001</v>
+      <c r="B69" s="64" t="s">
+        <v>998</v>
+      </c>
+      <c r="C69" s="64" t="s">
+        <v>925</v>
+      </c>
+      <c r="D69" s="64" t="s">
+        <v>999</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>391</v>
-      </c>
-      <c r="G69" s="66" t="s">
-        <v>935</v>
-      </c>
-      <c r="H69" s="66" t="s">
-        <v>941</v>
-      </c>
-      <c r="I69" s="66" t="s">
-        <v>950</v>
-      </c>
-      <c r="J69" s="66" t="s">
-        <v>959</v>
+        <v>390</v>
+      </c>
+      <c r="G69" s="64" t="s">
+        <v>933</v>
+      </c>
+      <c r="H69" s="64" t="s">
+        <v>939</v>
+      </c>
+      <c r="I69" s="64" t="s">
+        <v>948</v>
+      </c>
+      <c r="J69" s="64" t="s">
+        <v>957</v>
       </c>
       <c r="K69" s="18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L69" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M69" s="18" t="s">
-        <v>639</v>
-      </c>
-      <c r="N69" s="66" t="s">
-        <v>967</v>
-      </c>
-      <c r="O69" s="73" t="s">
-        <v>973</v>
+        <v>637</v>
+      </c>
+      <c r="N69" s="64" t="s">
+        <v>965</v>
+      </c>
+      <c r="O69" s="71" t="s">
+        <v>971</v>
       </c>
       <c r="P69" s="18"/>
       <c r="Q69" s="18"/>
-      <c r="R69" s="66" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R69" s="64" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A70" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B70" s="19"/>
-      <c r="C70" s="66" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D70" s="66" t="s">
-        <v>1002</v>
+      <c r="C70" s="64" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D70" s="64" t="s">
+        <v>1000</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="G70" s="66" t="s">
-        <v>936</v>
-      </c>
-      <c r="H70" s="66" t="s">
-        <v>942</v>
-      </c>
-      <c r="I70" s="66" t="s">
-        <v>853</v>
-      </c>
-      <c r="J70" s="66" t="s">
-        <v>960</v>
+        <v>362</v>
+      </c>
+      <c r="G70" s="64" t="s">
+        <v>934</v>
+      </c>
+      <c r="H70" s="64" t="s">
+        <v>940</v>
+      </c>
+      <c r="I70" s="64" t="s">
+        <v>851</v>
+      </c>
+      <c r="J70" s="64" t="s">
+        <v>958</v>
       </c>
       <c r="K70" s="18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L70" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M70" s="18" t="s">
-        <v>638</v>
-      </c>
-      <c r="N70" s="66" t="s">
-        <v>968</v>
+        <v>636</v>
+      </c>
+      <c r="N70" s="64" t="s">
+        <v>966</v>
       </c>
       <c r="P70" s="18"/>
       <c r="Q70" s="6"/>
-      <c r="R70" s="66" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R70" s="64" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A71" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C71" s="18"/>
       <c r="D71" s="18"/>
@@ -10529,43 +10592,45 @@
         <v>2</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>620</v>
-      </c>
-      <c r="G71" s="66" t="s">
-        <v>937</v>
-      </c>
-      <c r="H71" s="66" t="s">
-        <v>943</v>
-      </c>
-      <c r="I71" s="66" t="s">
-        <v>951</v>
-      </c>
-      <c r="J71" s="66" t="s">
-        <v>961</v>
-      </c>
-      <c r="K71" s="66" t="s">
-        <v>962</v>
+        <v>618</v>
+      </c>
+      <c r="G71" s="64" t="s">
+        <v>935</v>
+      </c>
+      <c r="H71" s="64" t="s">
+        <v>941</v>
+      </c>
+      <c r="I71" s="64" t="s">
+        <v>949</v>
+      </c>
+      <c r="J71" s="64" t="s">
+        <v>959</v>
+      </c>
+      <c r="K71" s="64" t="s">
+        <v>960</v>
       </c>
       <c r="L71" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M71" s="18" t="s">
-        <v>396</v>
-      </c>
-      <c r="N71" s="66" t="s">
-        <v>969</v>
+        <v>395</v>
+      </c>
+      <c r="N71" s="64" t="s">
+        <v>967</v>
       </c>
       <c r="O71" s="6"/>
       <c r="P71" s="18"/>
       <c r="Q71" s="6"/>
-      <c r="R71" s="26"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R71" s="68" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A72" s="16" t="s">
         <v>30</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C72" s="18"/>
       <c r="D72" s="18"/>
@@ -10574,25 +10639,28 @@
       </c>
       <c r="F72" s="23"/>
       <c r="G72" s="6"/>
-      <c r="H72" s="66" t="s">
-        <v>944</v>
-      </c>
-      <c r="I72" s="66" t="s">
-        <v>952</v>
-      </c>
-      <c r="K72" s="66" t="s">
-        <v>963</v>
+      <c r="H72" s="64" t="s">
+        <v>942</v>
+      </c>
+      <c r="I72" s="64" t="s">
+        <v>950</v>
+      </c>
+      <c r="K72" s="64" t="s">
+        <v>961</v>
       </c>
       <c r="L72" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M72" s="23"/>
+      <c r="N72" s="71"/>
       <c r="O72" s="6"/>
       <c r="P72" s="23"/>
       <c r="Q72" s="6"/>
-      <c r="R72" s="26"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R72" s="68" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A73" s="16" t="s">
         <v>31</v>
       </c>
@@ -10604,15 +10672,15 @@
       </c>
       <c r="F73" s="18"/>
       <c r="G73" s="6"/>
-      <c r="H73" s="66" t="s">
-        <v>945</v>
-      </c>
-      <c r="I73" s="66" t="s">
-        <v>953</v>
-      </c>
-      <c r="J73" s="83"/>
+      <c r="H73" s="64" t="s">
+        <v>943</v>
+      </c>
+      <c r="I73" s="64" t="s">
+        <v>951</v>
+      </c>
+      <c r="J73" s="81"/>
       <c r="K73" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L73" s="6" t="s">
         <v>2</v>
@@ -10624,7 +10692,7 @@
       <c r="Q73" s="6"/>
       <c r="R73" s="18"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A74" s="16" t="s">
         <v>32</v>
       </c>
@@ -10636,15 +10704,15 @@
       </c>
       <c r="F74" s="18"/>
       <c r="G74" s="18"/>
-      <c r="H74" s="66" t="s">
-        <v>946</v>
-      </c>
-      <c r="I74" s="66" t="s">
-        <v>954</v>
-      </c>
-      <c r="J74" s="83"/>
+      <c r="H74" s="64" t="s">
+        <v>944</v>
+      </c>
+      <c r="I74" s="64" t="s">
+        <v>952</v>
+      </c>
+      <c r="J74" s="81"/>
       <c r="K74" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="L74" s="6" t="s">
         <v>2</v>
@@ -10656,7 +10724,7 @@
       <c r="Q74" s="18"/>
       <c r="R74" s="18"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A75" s="16" t="s">
         <v>116</v>
       </c>
@@ -10669,10 +10737,10 @@
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
       <c r="H75" s="6"/>
-      <c r="I75" s="66" t="s">
-        <v>955</v>
-      </c>
-      <c r="J75" s="83"/>
+      <c r="I75" s="64" t="s">
+        <v>953</v>
+      </c>
+      <c r="J75" s="81"/>
       <c r="K75" s="18"/>
       <c r="L75" s="6" t="s">
         <v>2</v>
@@ -10684,9 +10752,9 @@
       <c r="Q75" s="18"/>
       <c r="R75" s="18"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A76" s="16" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B76" s="19"/>
       <c r="C76" s="6"/>
@@ -10698,7 +10766,7 @@
       <c r="G76" s="18"/>
       <c r="H76" s="6"/>
       <c r="I76" s="18"/>
-      <c r="J76" s="83"/>
+      <c r="J76" s="81"/>
       <c r="K76" s="18"/>
       <c r="L76" s="6" t="s">
         <v>2</v>
@@ -10710,7 +10778,7 @@
       <c r="Q76" s="18"/>
       <c r="R76" s="18"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A77" s="16" t="s">
         <v>33</v>
       </c>
@@ -10724,7 +10792,7 @@
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
       <c r="I77" s="18"/>
-      <c r="J77" s="83"/>
+      <c r="J77" s="81"/>
       <c r="K77" s="18"/>
       <c r="L77" s="6" t="s">
         <v>2</v>
@@ -10736,7 +10804,7 @@
       <c r="Q77" s="18"/>
       <c r="R77" s="18"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A78" s="16" t="s">
         <v>34</v>
       </c>
@@ -10749,7 +10817,7 @@
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="18"/>
-      <c r="J78" s="83"/>
+      <c r="J78" s="81"/>
       <c r="K78" s="18"/>
       <c r="L78" s="6" t="s">
         <v>2</v>
@@ -10761,9 +10829,9 @@
       <c r="Q78" s="6"/>
       <c r="R78" s="2"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A79" s="16" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B79" s="19"/>
       <c r="C79" s="6"/>
@@ -10774,7 +10842,7 @@
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
       <c r="I79" s="18"/>
-      <c r="J79" s="83"/>
+      <c r="J79" s="81"/>
       <c r="K79" s="18"/>
       <c r="L79" s="6" t="s">
         <v>2</v>
@@ -10786,7 +10854,7 @@
       <c r="Q79" s="6"/>
       <c r="R79" s="2"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A80" s="16" t="s">
         <v>35</v>
       </c>
@@ -10812,7 +10880,7 @@
       <c r="Q80" s="6"/>
       <c r="R80" s="6"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A81" s="16" t="s">
         <v>102</v>
       </c>
@@ -10838,7 +10906,7 @@
       <c r="Q81" s="6"/>
       <c r="R81" s="6"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A82" s="16" t="s">
         <v>103</v>
       </c>
@@ -10864,7 +10932,7 @@
       <c r="Q82" s="6"/>
       <c r="R82" s="6"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A83" s="16" t="s">
         <v>36</v>
       </c>
@@ -10890,7 +10958,7 @@
       <c r="Q83" s="6"/>
       <c r="R83" s="6"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A84" s="16" t="s">
         <v>37</v>
       </c>
@@ -10915,7 +10983,7 @@
       <c r="Q84" s="6"/>
       <c r="R84" s="6"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A85" s="16" t="s">
         <v>38</v>
       </c>
@@ -10940,7 +11008,7 @@
       <c r="Q85" s="6"/>
       <c r="R85" s="6"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A86" s="16" t="s">
         <v>39</v>
       </c>
@@ -10966,7 +11034,7 @@
       <c r="Q86" s="6"/>
       <c r="R86" s="6"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B87" s="5"/>
       <c r="L87" s="27"/>
       <c r="M87" s="27"/>
@@ -10976,19 +11044,19 @@
       <c r="Q87" s="27"/>
       <c r="R87" s="27"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B88" s="59" t="s">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B88" s="86" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B89" s="60" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B90" s="60" t="s">
-        <v>1036</v>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B89" s="87" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B90" s="87" t="s">
+        <v>1045</v>
       </c>
     </row>
   </sheetData>
@@ -10996,7 +11064,7 @@
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="46" fitToHeight="2" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"-,Bold"&amp;14FINAL EXAM TIMETABLE FOR JANUARY 2019 SEMESTER - NAIROBI CAMPUS</oddHeader>
+    <oddHeader>&amp;L&amp;"-,Bold"&amp;14FINAL EXAM TIMETABLE FOR JANUARY 2020 SEMESTER - NAIROBI CAMPUS</oddHeader>
     <oddFooter>Page &amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
@@ -11012,25 +11080,25 @@
   </sheetPr>
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" style="35" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="20.7109375" style="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="35"/>
+    <col min="1" max="1" width="12.9140625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="20.71484375" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.8125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.71484375" style="35" customWidth="1"/>
+    <col min="6" max="6" width="20.3125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.96484375" style="35" customWidth="1"/>
+    <col min="8" max="8" width="18.5625" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="20.71484375" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.14453125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="8"/>
       <c r="B1" s="33"/>
       <c r="C1" s="8"/>
@@ -11041,31 +11109,31 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="34"/>
       <c r="B2" s="36" t="s">
+        <v>417</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>418</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="D2" s="34" t="s">
         <v>419</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="E2" s="34" t="s">
         <v>420</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="F2" s="34" t="s">
         <v>421</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>422</v>
       </c>
       <c r="G2" s="34"/>
       <c r="H2" s="34" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I2" s="34"/>
       <c r="J2" s="34"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="34" t="s">
         <v>0</v>
       </c>
@@ -11097,7 +11165,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
@@ -11113,7 +11181,7 @@
       <c r="I4" s="22"/>
       <c r="J4" s="22"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -11129,7 +11197,7 @@
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -11145,9 +11213,9 @@
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="41"/>
@@ -11161,7 +11229,7 @@
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -11173,7 +11241,7 @@
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="22" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>2</v>
@@ -11181,19 +11249,19 @@
       <c r="G8" s="41"/>
       <c r="H8" s="22"/>
       <c r="I8" s="22" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="J8" s="22"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -11203,11 +11271,11 @@
       <c r="G9" s="39"/>
       <c r="H9" s="22"/>
       <c r="I9" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -11215,7 +11283,7 @@
         <v>142</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
@@ -11227,7 +11295,7 @@
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -11235,11 +11303,11 @@
         <v>140</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>2</v>
@@ -11247,42 +11315,40 @@
       <c r="G11" s="41"/>
       <c r="H11" s="22"/>
       <c r="I11" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>143</v>
-      </c>
+      <c r="B12" s="22"/>
       <c r="C12" s="39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="22" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J12" s="22"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -11290,23 +11356,23 @@
         <v>2</v>
       </c>
       <c r="G13" s="39" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="22" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
@@ -11318,11 +11384,13 @@
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="22"/>
+      <c r="B15" s="22" t="s">
+        <v>1035</v>
+      </c>
       <c r="C15" s="41"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -11334,7 +11402,7 @@
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
@@ -11346,13 +11414,13 @@
         <v>2</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
@@ -11368,7 +11436,7 @@
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
@@ -11384,7 +11452,7 @@
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
@@ -11396,13 +11464,13 @@
         <v>2</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H19" s="22"/>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
@@ -11418,12 +11486,12 @@
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="41"/>
-      <c r="C21" s="75"/>
+      <c r="C21" s="73"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="8" t="s">
@@ -11434,7 +11502,7 @@
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
@@ -11450,7 +11518,7 @@
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
@@ -11464,12 +11532,12 @@
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C24" s="41"/>
       <c r="D24" s="8"/>
@@ -11482,13 +11550,13 @@
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>127</v>
@@ -11504,33 +11572,33 @@
       <c r="I25" s="22"/>
       <c r="J25" s="22"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C26" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G26" s="43"/>
       <c r="H26" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
         <v>25</v>
       </c>
@@ -11538,10 +11606,10 @@
         <v>137</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="8" t="s">
@@ -11549,24 +11617,24 @@
       </c>
       <c r="G27" s="44"/>
       <c r="H27" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="75"/>
+      <c r="C28" s="73"/>
       <c r="D28" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>2</v>
@@ -11575,18 +11643,18 @@
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E29" s="22"/>
       <c r="F29" s="8" t="s">
@@ -11594,27 +11662,27 @@
       </c>
       <c r="G29" s="39"/>
       <c r="H29" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>129</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E30" s="22" t="s">
         <v>120</v>
@@ -11624,74 +11692,74 @@
       </c>
       <c r="G30" s="39"/>
       <c r="H30" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="I30" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="I30" s="22" t="s">
-        <v>256</v>
-      </c>
       <c r="J30" s="22" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C31" s="47"/>
       <c r="D31" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E31" s="22"/>
       <c r="F31" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G31" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
         <v>31</v>
       </c>
@@ -11699,13 +11767,13 @@
         <v>125</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>2</v>
@@ -11715,39 +11783,37 @@
         <v>139</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J33" s="22"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="C34" s="53" t="s">
-        <v>225</v>
-      </c>
+      <c r="C34" s="53"/>
       <c r="D34" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G34" s="41"/>
       <c r="H34" s="36" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
         <v>116</v>
       </c>
@@ -11755,177 +11821,177 @@
         <v>124</v>
       </c>
       <c r="C35" s="53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I35" s="22"/>
       <c r="J35" s="22"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C36" s="53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G36" s="39" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="I36" s="22"/>
       <c r="J36" s="22"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C37" s="47" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G37" s="41" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I37" s="22"/>
       <c r="J37" s="34"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="C38" s="76" t="s">
-        <v>193</v>
+        <v>158</v>
+      </c>
+      <c r="C38" s="74" t="s">
+        <v>192</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>132</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G38" s="51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I38" s="22"/>
       <c r="J38" s="34"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C39" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F39" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G39" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I39" s="22"/>
       <c r="J39" s="34"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G40" s="39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="I40" s="22"/>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
         <v>102</v>
       </c>
       <c r="B41" s="22"/>
       <c r="C41" s="39"/>
       <c r="D41" s="8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>2</v>
@@ -11933,14 +11999,14 @@
       <c r="H41" s="22"/>
       <c r="I41" s="22"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
         <v>103</v>
       </c>
       <c r="B42" s="22"/>
       <c r="C42" s="39"/>
       <c r="D42" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8" t="s">
@@ -11951,17 +12017,17 @@
       <c r="I42" s="22"/>
       <c r="J42" s="8"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B43" s="22"/>
       <c r="C43" s="41"/>
       <c r="D43" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>2</v>
@@ -11970,14 +12036,14 @@
       <c r="H43" s="22"/>
       <c r="I43" s="22"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B44" s="22"/>
       <c r="C44" s="41"/>
       <c r="D44" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E44" s="22"/>
       <c r="F44" s="8" t="s">
@@ -11987,7 +12053,7 @@
       <c r="I44" s="22"/>
       <c r="J44" s="8"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="8" t="s">
         <v>38</v>
       </c>
@@ -12003,14 +12069,14 @@
       <c r="I45" s="22"/>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B46" s="22"/>
       <c r="C46" s="41"/>
       <c r="D46" s="22" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E46" s="22"/>
       <c r="F46" s="8" t="s">
@@ -12021,14 +12087,14 @@
       <c r="I46" s="22"/>
       <c r="J46" s="8"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B47" s="22"/>
       <c r="C47" s="41"/>
       <c r="D47" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E47" s="22"/>
       <c r="F47" s="8" t="s">
@@ -12039,7 +12105,7 @@
       <c r="I47" s="22"/>
       <c r="J47" s="8"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="22"/>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
@@ -12051,31 +12117,31 @@
       <c r="I48" s="22"/>
       <c r="J48" s="22"/>
     </row>
-    <row r="49" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="34"/>
       <c r="B49" s="36" t="s">
+        <v>422</v>
+      </c>
+      <c r="C49" s="36" t="s">
         <v>423</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="D49" s="34" t="s">
         <v>424</v>
       </c>
-      <c r="D49" s="34" t="s">
+      <c r="E49" s="34" t="s">
         <v>425</v>
       </c>
-      <c r="E49" s="34" t="s">
+      <c r="F49" s="34" t="s">
         <v>426</v>
-      </c>
-      <c r="F49" s="34" t="s">
-        <v>427</v>
       </c>
       <c r="G49" s="34"/>
       <c r="H49" s="34" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I49" s="34"/>
       <c r="J49" s="34"/>
     </row>
-    <row r="50" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>40</v>
       </c>
@@ -12107,7 +12173,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
         <v>3</v>
       </c>
@@ -12123,7 +12189,7 @@
       <c r="I51" s="41"/>
       <c r="J51" s="22"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="8" t="s">
         <v>4</v>
       </c>
@@ -12139,7 +12205,7 @@
       <c r="I52" s="41"/>
       <c r="J52" s="22"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" s="8" t="s">
         <v>5</v>
       </c>
@@ -12155,9 +12221,9 @@
       <c r="I53" s="41"/>
       <c r="J53" s="22"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="43"/>
@@ -12171,19 +12237,19 @@
       <c r="I54" s="41"/>
       <c r="J54" s="22"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E55" s="45" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>2</v>
@@ -12193,19 +12259,19 @@
       <c r="I55" s="41"/>
       <c r="J55" s="22"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="22" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E56" s="45" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>2</v>
@@ -12215,19 +12281,19 @@
       <c r="I56" s="41"/>
       <c r="J56" s="22"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E57" s="45" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>2</v>
@@ -12237,19 +12303,19 @@
       <c r="I57" s="22"/>
       <c r="J57" s="22"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C58" s="34"/>
       <c r="D58" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E58" s="45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>2</v>
@@ -12258,17 +12324,19 @@
       <c r="I58" s="41"/>
       <c r="J58" s="22"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="22"/>
+      <c r="B59" s="22" t="s">
+        <v>1040</v>
+      </c>
       <c r="C59" s="8"/>
       <c r="D59" s="22" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E59" s="45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>2</v>
@@ -12278,14 +12346,14 @@
       <c r="I59" s="22"/>
       <c r="J59" s="22"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B60" s="22"/>
       <c r="C60" s="8"/>
       <c r="D60" s="22" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E60" s="45"/>
       <c r="F60" s="8" t="s">
@@ -12296,17 +12364,17 @@
       <c r="I60" s="22"/>
       <c r="J60" s="22"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="22" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E61" s="45" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>2</v>
@@ -12316,14 +12384,14 @@
       <c r="I61" s="45"/>
       <c r="J61" s="22"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B62" s="22"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8" t="s">
@@ -12334,7 +12402,7 @@
       <c r="I62" s="45"/>
       <c r="J62" s="22"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" s="8" t="s">
         <v>14</v>
       </c>
@@ -12350,7 +12418,7 @@
       <c r="I63" s="45"/>
       <c r="J63" s="22"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" s="8" t="s">
         <v>15</v>
       </c>
@@ -12366,7 +12434,7 @@
       <c r="I64" s="45"/>
       <c r="J64" s="22"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" s="8" t="s">
         <v>16</v>
       </c>
@@ -12382,7 +12450,7 @@
       <c r="I65" s="45"/>
       <c r="J65" s="22"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" s="8" t="s">
         <v>17</v>
       </c>
@@ -12398,7 +12466,7 @@
       <c r="I66" s="45"/>
       <c r="J66" s="22"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" s="8" t="s">
         <v>18</v>
       </c>
@@ -12414,7 +12482,7 @@
       <c r="I67" s="53"/>
       <c r="J67" s="22"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" s="8" t="s">
         <v>19</v>
       </c>
@@ -12430,7 +12498,7 @@
       <c r="I68" s="53"/>
       <c r="J68" s="22"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" s="8" t="s">
         <v>20</v>
       </c>
@@ -12445,7 +12513,7 @@
       <c r="I69" s="53"/>
       <c r="J69" s="22"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" s="8" t="s">
         <v>21</v>
       </c>
@@ -12461,195 +12529,195 @@
       <c r="I70" s="53"/>
       <c r="J70" s="22"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E71" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F71" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G71" s="77" t="s">
-        <v>768</v>
+      <c r="G71" s="75" t="s">
+        <v>766</v>
       </c>
       <c r="H71" s="22" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I71" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="J71" s="79" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+      <c r="J71" s="77" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E72" s="42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F72" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G72" s="77" t="s">
-        <v>769</v>
+      <c r="G72" s="75" t="s">
+        <v>767</v>
       </c>
       <c r="H72" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I72" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="J72" s="79" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+      <c r="J72" s="77" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E73" s="42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F73" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G73" s="77" t="s">
-        <v>770</v>
+      <c r="G73" s="75" t="s">
+        <v>768</v>
       </c>
       <c r="H73" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I73" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="J73" s="79" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+      <c r="J73" s="77" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E74" s="45" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F74" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G74" s="78" t="s">
-        <v>771</v>
+      <c r="G74" s="76" t="s">
+        <v>769</v>
       </c>
       <c r="H74" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I74" s="22" t="s">
-        <v>504</v>
-      </c>
-      <c r="J74" s="79" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+        <v>502</v>
+      </c>
+      <c r="J74" s="77" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D75" s="8" t="s">
         <v>128</v>
       </c>
       <c r="E75" s="55" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F75" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G75" s="78" t="s">
-        <v>775</v>
+      <c r="G75" s="76" t="s">
+        <v>773</v>
       </c>
       <c r="H75" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I75" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J75" s="22"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C76" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E76" s="49" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F76" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G76" s="80" t="s">
-        <v>776</v>
+      <c r="G76" s="78" t="s">
+        <v>774</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I76" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J76" s="22"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77" s="8" t="s">
         <v>28</v>
       </c>
@@ -12657,27 +12725,27 @@
         <v>123</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E77" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F77" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G77" s="44"/>
       <c r="H77" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I77" s="22" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="J77" s="22"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78" s="8" t="s">
         <v>29</v>
       </c>
@@ -12685,27 +12753,29 @@
         <v>141</v>
       </c>
       <c r="C78" s="34" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E78" s="49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F78" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G78" s="44"/>
+      <c r="G78" s="44" t="s">
+        <v>492</v>
+      </c>
       <c r="H78" s="22" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I78" s="22" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="J78" s="22"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79" s="8" t="s">
         <v>30</v>
       </c>
@@ -12713,39 +12783,37 @@
         <v>131</v>
       </c>
       <c r="C79" s="34" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D79" s="22" t="s">
         <v>121</v>
       </c>
       <c r="E79" s="48" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F79" s="8" t="s">
         <v>2</v>
       </c>
       <c r="G79" s="44"/>
       <c r="H79" s="22"/>
-      <c r="I79" s="45" t="s">
-        <v>494</v>
-      </c>
+      <c r="I79" s="45"/>
       <c r="J79" s="8"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E80" s="54" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F80" s="8" t="s">
         <v>2</v>
@@ -12755,21 +12823,21 @@
       <c r="I80" s="45"/>
       <c r="J80" s="8"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D81" s="22" t="s">
         <v>119</v>
       </c>
       <c r="E81" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F81" s="8" t="s">
         <v>2</v>
@@ -12779,18 +12847,18 @@
       <c r="I81" s="45"/>
       <c r="J81" s="8"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D82" s="22" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E82" s="54" t="s">
         <v>130</v>
@@ -12803,21 +12871,21 @@
       <c r="I82" s="45"/>
       <c r="J82" s="22"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B83" s="22" t="s">
         <v>135</v>
       </c>
       <c r="C83" s="22" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D83" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E83" s="54" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F83" s="8" t="s">
         <v>2</v>
@@ -12827,21 +12895,21 @@
       <c r="I83" s="45"/>
       <c r="J83" s="22"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B84" s="22" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C84" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E84" s="49" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F84" s="8" t="s">
         <v>2</v>
@@ -12851,21 +12919,21 @@
       <c r="I84" s="45"/>
       <c r="J84" s="8"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B85" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E85" s="50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F85" s="8" t="s">
         <v>2</v>
@@ -12875,7 +12943,7 @@
       <c r="I85" s="45"/>
       <c r="J85" s="8"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86" s="8" t="s">
         <v>35</v>
       </c>
@@ -12883,13 +12951,13 @@
         <v>138</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E86" s="50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F86" s="8" t="s">
         <v>2</v>
@@ -12899,19 +12967,19 @@
       <c r="I86" s="45"/>
       <c r="J86" s="8"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87" s="8" t="s">
         <v>102</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C87" s="22"/>
       <c r="D87" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E87" s="42" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F87" s="8" t="s">
         <v>2</v>
@@ -12921,7 +12989,7 @@
       <c r="I87" s="45"/>
       <c r="J87" s="8"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88" s="8" t="s">
         <v>103</v>
       </c>
@@ -12937,7 +13005,7 @@
       <c r="I88" s="45"/>
       <c r="J88" s="8"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89" s="8" t="s">
         <v>36</v>
       </c>
@@ -12953,7 +13021,7 @@
       <c r="I89" s="45"/>
       <c r="J89" s="8"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90" s="8" t="s">
         <v>37</v>
       </c>
@@ -12969,7 +13037,7 @@
       <c r="I90" s="45"/>
       <c r="J90" s="8"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" s="8" t="s">
         <v>38</v>
       </c>
@@ -12985,9 +13053,9 @@
       <c r="I91" s="45"/>
       <c r="J91" s="8"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92" s="8" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B92" s="22"/>
       <c r="C92" s="42"/>
@@ -13001,7 +13069,7 @@
       <c r="I92" s="45"/>
       <c r="J92" s="8"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93" s="8" t="s">
         <v>39</v>
       </c>
@@ -13017,7 +13085,7 @@
       <c r="I93" s="45"/>
       <c r="J93" s="8"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94" s="43"/>
       <c r="E94" s="43"/>
       <c r="F94" s="43"/>
@@ -13026,7 +13094,7 @@
       <c r="I94" s="43"/>
       <c r="J94" s="43"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95" s="43"/>
       <c r="E95" s="43"/>
       <c r="F95" s="43"/>
@@ -13035,9 +13103,9 @@
       <c r="I95" s="43"/>
       <c r="J95" s="43"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96" s="43"/>
-      <c r="B96" s="59" t="s">
+      <c r="B96" s="86" t="s">
         <v>112</v>
       </c>
       <c r="E96" s="43"/>
@@ -13047,10 +13115,10 @@
       <c r="I96" s="43"/>
       <c r="J96" s="43"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97" s="43"/>
-      <c r="B97" s="60" t="s">
-        <v>430</v>
+      <c r="B97" s="87" t="s">
+        <v>1046</v>
       </c>
       <c r="E97" s="43"/>
       <c r="F97" s="43"/>
@@ -13059,12 +13127,12 @@
       <c r="I97" s="43"/>
       <c r="J97" s="43"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B98" s="60" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B98" s="87" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B99" s="5"/>
       <c r="C99" s="43"/>
       <c r="F99" s="15"/>
@@ -13073,7 +13141,7 @@
       <c r="I99" s="15"/>
       <c r="J99" s="5"/>
     </row>
-    <row r="100" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B100" s="5"/>
       <c r="C100" s="43"/>
       <c r="F100" s="15"/>
@@ -13082,7 +13150,7 @@
       <c r="I100" s="15"/>
       <c r="J100" s="5"/>
     </row>
-    <row r="101" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B101" s="5"/>
       <c r="C101" s="43"/>
       <c r="F101" s="15"/>
@@ -13091,7 +13159,7 @@
       <c r="I101" s="15"/>
       <c r="J101" s="5"/>
     </row>
-    <row r="102" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B102" s="5"/>
       <c r="C102" s="43"/>
       <c r="E102" s="56"/>
@@ -13106,7 +13174,7 @@
   <pageMargins left="0.45" right="0.45" top="1" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="53" fitToHeight="2" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader xml:space="preserve">&amp;L&amp;"-,Bold"&amp;14FINAL EXAM TIMETABLE FOR JANUARY 2019 SEMESTER - NAIROBI EVENING </oddHeader>
+    <oddHeader xml:space="preserve">&amp;L&amp;"-,Bold"&amp;14FINAL EXAM TIMETABLE FOR JANUARY 2020 SEMESTER - NAIROBI EVENING </oddHeader>
     <oddFooter>Page &amp;P</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
